--- a/report/Report_iTNK.xlsx
+++ b/report/Report_iTNK.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02_Code\02_VBA\08_TrangTrang\duAnTool30092024\trangTrang_TTK_VBA\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{514F27CA-5487-417E-8FAB-F40DAA2B4C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12470286-B8F7-459C-859F-79EA027AC015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7CDCA686-B01A-460A-B60F-F40DCB24425E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C680A2F-127F-47C8-88D9-7F2CBF246C7D}"/>
   </bookViews>
   <sheets>
     <sheet name="import-iTNK" sheetId="1" r:id="rId1"/>
@@ -4976,18 +4976,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF87CEEB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -5017,11 +5011,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5355,12 +5348,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F9506C-2061-498D-B44C-2C51A5208B68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12FC1A93-776B-498A-8E6C-5F0DBBD32B3B}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:N304"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5426,10 +5419,10 @@
       <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -5447,7 +5440,7 @@
       <c r="I2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="2" t="s">
@@ -5455,7 +5448,7 @@
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="3"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
@@ -5464,10 +5457,10 @@
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -5485,7 +5478,7 @@
       <c r="I3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K3" s="2" t="s">
@@ -5493,7 +5486,7 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
-      <c r="N3" s="3"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
@@ -5502,10 +5495,10 @@
       <c r="B4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -5523,7 +5516,7 @@
       <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -5531,7 +5524,7 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
@@ -5540,10 +5533,10 @@
       <c r="B5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -5561,7 +5554,7 @@
       <c r="I5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="2" t="s">
@@ -5569,7 +5562,7 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
-      <c r="N5" s="3"/>
+      <c r="N5" s="1"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
@@ -5578,10 +5571,10 @@
       <c r="B6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5599,7 +5592,7 @@
       <c r="I6" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K6" s="2" t="s">
@@ -5607,7 +5600,7 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-      <c r="N6" s="3"/>
+      <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
@@ -5616,10 +5609,10 @@
       <c r="B7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>57</v>
       </c>
       <c r="E7" s="2" t="s">
@@ -5637,7 +5630,7 @@
       <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="1" t="s">
         <v>60</v>
       </c>
       <c r="K7" s="2" t="s">
@@ -5645,7 +5638,7 @@
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
+      <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
@@ -5654,10 +5647,10 @@
       <c r="B8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>64</v>
       </c>
       <c r="E8" s="2" t="s">
@@ -5675,7 +5668,7 @@
       <c r="I8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="1" t="s">
         <v>66</v>
       </c>
       <c r="K8" s="2" t="s">
@@ -5683,7 +5676,7 @@
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
-      <c r="N8" s="3"/>
+      <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
@@ -5692,10 +5685,10 @@
       <c r="B9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
@@ -5713,7 +5706,7 @@
       <c r="I9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="1" t="s">
         <v>71</v>
       </c>
       <c r="K9" s="2" t="s">
@@ -5721,7 +5714,7 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
-      <c r="N9" s="3"/>
+      <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
@@ -5730,10 +5723,10 @@
       <c r="B10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
       <c r="E10" s="2" t="s">
@@ -5751,7 +5744,7 @@
       <c r="I10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="1" t="s">
         <v>79</v>
       </c>
       <c r="K10" s="2" t="s">
@@ -5759,7 +5752,7 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
-      <c r="N10" s="3"/>
+      <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
@@ -5768,10 +5761,10 @@
       <c r="B11" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>83</v>
       </c>
       <c r="E11" s="2" t="s">
@@ -5789,7 +5782,7 @@
       <c r="I11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="1" t="s">
         <v>85</v>
       </c>
       <c r="K11" s="2" t="s">
@@ -5797,7 +5790,7 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
-      <c r="N11" s="3"/>
+      <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
@@ -5806,10 +5799,10 @@
       <c r="B12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E12" s="2" t="s">
@@ -5827,7 +5820,7 @@
       <c r="I12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="1" t="s">
         <v>92</v>
       </c>
       <c r="K12" s="2" t="s">
@@ -5835,7 +5828,7 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="3"/>
+      <c r="N12" s="1"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
@@ -5844,10 +5837,10 @@
       <c r="B13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>96</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -5865,7 +5858,7 @@
       <c r="I13" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="1" t="s">
         <v>98</v>
       </c>
       <c r="K13" s="2" t="s">
@@ -5873,7 +5866,7 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
-      <c r="N13" s="3"/>
+      <c r="N13" s="1"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
@@ -5882,10 +5875,10 @@
       <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>102</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -5903,7 +5896,7 @@
       <c r="I14" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="J14" s="1" t="s">
         <v>105</v>
       </c>
       <c r="K14" s="2" t="s">
@@ -5911,7 +5904,7 @@
       </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
-      <c r="N14" s="3"/>
+      <c r="N14" s="1"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
@@ -5920,10 +5913,10 @@
       <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -5941,7 +5934,7 @@
       <c r="I15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="J15" s="1" t="s">
         <v>112</v>
       </c>
       <c r="K15" s="2" t="s">
@@ -5949,7 +5942,7 @@
       </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
-      <c r="N15" s="3"/>
+      <c r="N15" s="1"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
@@ -5958,10 +5951,10 @@
       <c r="B16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>116</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -5979,7 +5972,7 @@
       <c r="I16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="1" t="s">
         <v>118</v>
       </c>
       <c r="K16" s="2" t="s">
@@ -5987,7 +5980,7 @@
       </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
-      <c r="N16" s="3"/>
+      <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
@@ -5996,10 +5989,10 @@
       <c r="B17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>122</v>
       </c>
       <c r="E17" s="2" t="s">
@@ -6017,7 +6010,7 @@
       <c r="I17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="J17" s="1" t="s">
         <v>123</v>
       </c>
       <c r="K17" s="2" t="s">
@@ -6025,7 +6018,7 @@
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="3"/>
+      <c r="N17" s="1"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
@@ -6034,10 +6027,10 @@
       <c r="B18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>127</v>
       </c>
       <c r="E18" s="2" t="s">
@@ -6055,7 +6048,7 @@
       <c r="I18" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="1" t="s">
         <v>129</v>
       </c>
       <c r="K18" s="2" t="s">
@@ -6063,7 +6056,7 @@
       </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
-      <c r="N18" s="3"/>
+      <c r="N18" s="1"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
@@ -6072,10 +6065,10 @@
       <c r="B19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>133</v>
       </c>
       <c r="E19" s="2" t="s">
@@ -6093,7 +6086,7 @@
       <c r="I19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="J19" s="1" t="s">
         <v>134</v>
       </c>
       <c r="K19" s="2" t="s">
@@ -6101,7 +6094,7 @@
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
-      <c r="N19" s="3"/>
+      <c r="N19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
@@ -6110,10 +6103,10 @@
       <c r="B20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="D20" s="1" t="s">
         <v>138</v>
       </c>
       <c r="E20" s="2" t="s">
@@ -6131,7 +6124,7 @@
       <c r="I20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="1" t="s">
         <v>141</v>
       </c>
       <c r="K20" s="2" t="s">
@@ -6139,7 +6132,7 @@
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
-      <c r="N20" s="3"/>
+      <c r="N20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
@@ -6148,10 +6141,10 @@
       <c r="B21" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D21" s="3" t="s">
+      <c r="D21" s="1" t="s">
         <v>145</v>
       </c>
       <c r="E21" s="2" t="s">
@@ -6169,7 +6162,7 @@
       <c r="I21" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="1" t="s">
         <v>148</v>
       </c>
       <c r="K21" s="2" t="s">
@@ -6177,7 +6170,7 @@
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
-      <c r="N21" s="3"/>
+      <c r="N21" s="1"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
@@ -6186,10 +6179,10 @@
       <c r="B22" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="1" t="s">
         <v>152</v>
       </c>
       <c r="E22" s="2" t="s">
@@ -6207,7 +6200,7 @@
       <c r="I22" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="1" t="s">
         <v>155</v>
       </c>
       <c r="K22" s="2" t="s">
@@ -6215,7 +6208,7 @@
       </c>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
-      <c r="N22" s="3"/>
+      <c r="N22" s="1"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
@@ -6224,10 +6217,10 @@
       <c r="B23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="3" t="s">
+      <c r="D23" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -6245,7 +6238,7 @@
       <c r="I23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="1" t="s">
         <v>161</v>
       </c>
       <c r="K23" s="2" t="s">
@@ -6253,7 +6246,7 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
-      <c r="N23" s="3"/>
+      <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
@@ -6262,10 +6255,10 @@
       <c r="B24" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="1" t="s">
         <v>165</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -6283,7 +6276,7 @@
       <c r="I24" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="1" t="s">
         <v>166</v>
       </c>
       <c r="K24" s="2" t="s">
@@ -6291,7 +6284,7 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
-      <c r="N24" s="3"/>
+      <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
@@ -6300,10 +6293,10 @@
       <c r="B25" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -6321,7 +6314,7 @@
       <c r="I25" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="1" t="s">
         <v>172</v>
       </c>
       <c r="K25" s="2" t="s">
@@ -6329,7 +6322,7 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
-      <c r="N25" s="3"/>
+      <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
@@ -6338,10 +6331,10 @@
       <c r="B26" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="1" t="s">
         <v>176</v>
       </c>
       <c r="E26" s="2" t="s">
@@ -6359,7 +6352,7 @@
       <c r="I26" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="J26" s="1" t="s">
         <v>177</v>
       </c>
       <c r="K26" s="2" t="s">
@@ -6367,7 +6360,7 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
-      <c r="N26" s="3"/>
+      <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
@@ -6376,10 +6369,10 @@
       <c r="B27" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E27" s="2" t="s">
@@ -6397,7 +6390,7 @@
       <c r="I27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="1" t="s">
         <v>183</v>
       </c>
       <c r="K27" s="2" t="s">
@@ -6405,7 +6398,7 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
-      <c r="N27" s="3"/>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
@@ -6414,10 +6407,10 @@
       <c r="B28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="1" t="s">
         <v>187</v>
       </c>
       <c r="E28" s="2" t="s">
@@ -6435,7 +6428,7 @@
       <c r="I28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J28" s="3" t="s">
+      <c r="J28" s="1" t="s">
         <v>189</v>
       </c>
       <c r="K28" s="2" t="s">
@@ -6443,7 +6436,7 @@
       </c>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
-      <c r="N28" s="3"/>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
@@ -6452,10 +6445,10 @@
       <c r="B29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="1" t="s">
         <v>193</v>
       </c>
       <c r="E29" s="2" t="s">
@@ -6473,7 +6466,7 @@
       <c r="I29" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="3" t="s">
+      <c r="J29" s="1" t="s">
         <v>195</v>
       </c>
       <c r="K29" s="2" t="s">
@@ -6481,7 +6474,7 @@
       </c>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
-      <c r="N29" s="3"/>
+      <c r="N29" s="1"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
@@ -6490,10 +6483,10 @@
       <c r="B30" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D30" s="3" t="s">
+      <c r="D30" s="1" t="s">
         <v>199</v>
       </c>
       <c r="E30" s="2" t="s">
@@ -6511,7 +6504,7 @@
       <c r="I30" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J30" s="3" t="s">
+      <c r="J30" s="1" t="s">
         <v>200</v>
       </c>
       <c r="K30" s="2" t="s">
@@ -6519,7 +6512,7 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
-      <c r="N30" s="3"/>
+      <c r="N30" s="1"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
@@ -6528,10 +6521,10 @@
       <c r="B31" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D31" s="3" t="s">
+      <c r="D31" s="1" t="s">
         <v>204</v>
       </c>
       <c r="E31" s="2" t="s">
@@ -6549,7 +6542,7 @@
       <c r="I31" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="1" t="s">
         <v>205</v>
       </c>
       <c r="K31" s="2" t="s">
@@ -6557,7 +6550,7 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
-      <c r="N31" s="3"/>
+      <c r="N31" s="1"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
@@ -6566,10 +6559,10 @@
       <c r="B32" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D32" s="3" t="s">
+      <c r="D32" s="1" t="s">
         <v>209</v>
       </c>
       <c r="E32" s="2" t="s">
@@ -6587,7 +6580,7 @@
       <c r="I32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="3" t="s">
+      <c r="J32" s="1" t="s">
         <v>212</v>
       </c>
       <c r="K32" s="2" t="s">
@@ -6595,7 +6588,7 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
-      <c r="N32" s="3"/>
+      <c r="N32" s="1"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
@@ -6604,10 +6597,10 @@
       <c r="B33" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D33" s="3" t="s">
+      <c r="D33" s="1" t="s">
         <v>216</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -6625,7 +6618,7 @@
       <c r="I33" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="1" t="s">
         <v>218</v>
       </c>
       <c r="K33" s="2" t="s">
@@ -6633,7 +6626,7 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
-      <c r="N33" s="3"/>
+      <c r="N33" s="1"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
@@ -6642,10 +6635,10 @@
       <c r="B34" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>222</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -6663,7 +6656,7 @@
       <c r="I34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J34" s="3" t="s">
+      <c r="J34" s="1" t="s">
         <v>223</v>
       </c>
       <c r="K34" s="2" t="s">
@@ -6671,7 +6664,7 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
-      <c r="N34" s="3"/>
+      <c r="N34" s="1"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
@@ -6680,10 +6673,10 @@
       <c r="B35" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>227</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -6701,7 +6694,7 @@
       <c r="I35" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="1" t="s">
         <v>229</v>
       </c>
       <c r="K35" s="2" t="s">
@@ -6709,7 +6702,7 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
-      <c r="N35" s="3"/>
+      <c r="N35" s="1"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
@@ -6718,10 +6711,10 @@
       <c r="B36" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="D36" s="1" t="s">
         <v>233</v>
       </c>
       <c r="E36" s="2" t="s">
@@ -6739,7 +6732,7 @@
       <c r="I36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="1" t="s">
         <v>234</v>
       </c>
       <c r="K36" s="2" t="s">
@@ -6747,7 +6740,7 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
-      <c r="N36" s="3"/>
+      <c r="N36" s="1"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
@@ -6756,10 +6749,10 @@
       <c r="B37" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="D37" s="1" t="s">
         <v>238</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -6777,7 +6770,7 @@
       <c r="I37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="1" t="s">
         <v>240</v>
       </c>
       <c r="K37" s="2" t="s">
@@ -6785,7 +6778,7 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
-      <c r="N37" s="3"/>
+      <c r="N37" s="1"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
@@ -6794,10 +6787,10 @@
       <c r="B38" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="1" t="s">
         <v>244</v>
       </c>
       <c r="E38" s="2" t="s">
@@ -6815,7 +6808,7 @@
       <c r="I38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="1" t="s">
         <v>245</v>
       </c>
       <c r="K38" s="2" t="s">
@@ -6823,7 +6816,7 @@
       </c>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
-      <c r="N38" s="3"/>
+      <c r="N38" s="1"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
@@ -6832,10 +6825,10 @@
       <c r="B39" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="D39" s="1" t="s">
         <v>249</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -6853,7 +6846,7 @@
       <c r="I39" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="1" t="s">
         <v>251</v>
       </c>
       <c r="K39" s="2" t="s">
@@ -6861,7 +6854,7 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
-      <c r="N39" s="3"/>
+      <c r="N39" s="1"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
@@ -6870,10 +6863,10 @@
       <c r="B40" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="1" t="s">
         <v>255</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -6891,7 +6884,7 @@
       <c r="I40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J40" s="3" t="s">
+      <c r="J40" s="1" t="s">
         <v>256</v>
       </c>
       <c r="K40" s="2" t="s">
@@ -6899,7 +6892,7 @@
       </c>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
-      <c r="N40" s="3"/>
+      <c r="N40" s="1"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
@@ -6908,10 +6901,10 @@
       <c r="B41" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -6929,7 +6922,7 @@
       <c r="I41" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="1" t="s">
         <v>262</v>
       </c>
       <c r="K41" s="2" t="s">
@@ -6937,7 +6930,7 @@
       </c>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
-      <c r="N41" s="3"/>
+      <c r="N41" s="1"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
@@ -6946,10 +6939,10 @@
       <c r="B42" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="1" t="s">
         <v>266</v>
       </c>
       <c r="E42" s="2" t="s">
@@ -6967,7 +6960,7 @@
       <c r="I42" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="1" t="s">
         <v>267</v>
       </c>
       <c r="K42" s="2" t="s">
@@ -6975,7 +6968,7 @@
       </c>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
-      <c r="N42" s="3"/>
+      <c r="N42" s="1"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
@@ -6984,10 +6977,10 @@
       <c r="B43" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="1" t="s">
         <v>271</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -7005,7 +6998,7 @@
       <c r="I43" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J43" s="3" t="s">
+      <c r="J43" s="1" t="s">
         <v>272</v>
       </c>
       <c r="K43" s="2" t="s">
@@ -7013,7 +7006,7 @@
       </c>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
-      <c r="N43" s="3"/>
+      <c r="N43" s="1"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
@@ -7022,10 +7015,10 @@
       <c r="B44" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="3" t="s">
+      <c r="D44" s="1" t="s">
         <v>276</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -7043,7 +7036,7 @@
       <c r="I44" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J44" s="3" t="s">
+      <c r="J44" s="1" t="s">
         <v>277</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -7051,7 +7044,7 @@
       </c>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="3"/>
+      <c r="N44" s="1"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
@@ -7060,10 +7053,10 @@
       <c r="B45" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="D45" s="3" t="s">
+      <c r="D45" s="1" t="s">
         <v>281</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -7081,7 +7074,7 @@
       <c r="I45" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="1" t="s">
         <v>282</v>
       </c>
       <c r="K45" s="2" t="s">
@@ -7089,7 +7082,7 @@
       </c>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
-      <c r="N45" s="3"/>
+      <c r="N45" s="1"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
@@ -7098,10 +7091,10 @@
       <c r="B46" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D46" s="3" t="s">
+      <c r="D46" s="1" t="s">
         <v>286</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -7119,7 +7112,7 @@
       <c r="I46" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J46" s="3" t="s">
+      <c r="J46" s="1" t="s">
         <v>287</v>
       </c>
       <c r="K46" s="2" t="s">
@@ -7127,7 +7120,7 @@
       </c>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
-      <c r="N46" s="3"/>
+      <c r="N46" s="1"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
@@ -7136,10 +7129,10 @@
       <c r="B47" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="1" t="s">
         <v>291</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -7157,7 +7150,7 @@
       <c r="I47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="J47" s="3" t="s">
+      <c r="J47" s="1" t="s">
         <v>293</v>
       </c>
       <c r="K47" s="2" t="s">
@@ -7165,7 +7158,7 @@
       </c>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
-      <c r="N47" s="3"/>
+      <c r="N47" s="1"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
@@ -7174,10 +7167,10 @@
       <c r="B48" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D48" s="1" t="s">
         <v>297</v>
       </c>
       <c r="E48" s="2" t="s">
@@ -7195,7 +7188,7 @@
       <c r="I48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="1" t="s">
         <v>299</v>
       </c>
       <c r="K48" s="2" t="s">
@@ -7203,7 +7196,7 @@
       </c>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
-      <c r="N48" s="3"/>
+      <c r="N48" s="1"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
@@ -7212,10 +7205,10 @@
       <c r="B49" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D49" s="3" t="s">
+      <c r="D49" s="1" t="s">
         <v>303</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -7233,7 +7226,7 @@
       <c r="I49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="1" t="s">
         <v>304</v>
       </c>
       <c r="K49" s="2" t="s">
@@ -7241,7 +7234,7 @@
       </c>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
-      <c r="N49" s="3"/>
+      <c r="N49" s="1"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
@@ -7250,10 +7243,10 @@
       <c r="B50" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="D50" s="3" t="s">
+      <c r="D50" s="1" t="s">
         <v>308</v>
       </c>
       <c r="E50" s="2" t="s">
@@ -7271,7 +7264,7 @@
       <c r="I50" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J50" s="3" t="s">
+      <c r="J50" s="1" t="s">
         <v>309</v>
       </c>
       <c r="K50" s="2" t="s">
@@ -7279,7 +7272,7 @@
       </c>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
-      <c r="N50" s="3"/>
+      <c r="N50" s="1"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
@@ -7288,10 +7281,10 @@
       <c r="B51" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D51" s="3" t="s">
+      <c r="D51" s="1" t="s">
         <v>313</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -7309,7 +7302,7 @@
       <c r="I51" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="1" t="s">
         <v>314</v>
       </c>
       <c r="K51" s="2" t="s">
@@ -7317,7 +7310,7 @@
       </c>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
-      <c r="N51" s="3"/>
+      <c r="N51" s="1"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
@@ -7326,10 +7319,10 @@
       <c r="B52" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="D52" s="3" t="s">
+      <c r="D52" s="1" t="s">
         <v>318</v>
       </c>
       <c r="E52" s="2" t="s">
@@ -7347,7 +7340,7 @@
       <c r="I52" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="1" t="s">
         <v>319</v>
       </c>
       <c r="K52" s="2" t="s">
@@ -7355,7 +7348,7 @@
       </c>
       <c r="L52" s="2"/>
       <c r="M52" s="2"/>
-      <c r="N52" s="3"/>
+      <c r="N52" s="1"/>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
@@ -7364,10 +7357,10 @@
       <c r="B53" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D53" s="3" t="s">
+      <c r="D53" s="1" t="s">
         <v>323</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -7385,7 +7378,7 @@
       <c r="I53" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="1" t="s">
         <v>325</v>
       </c>
       <c r="K53" s="2" t="s">
@@ -7393,7 +7386,7 @@
       </c>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="3"/>
+      <c r="N53" s="1"/>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
@@ -7402,10 +7395,10 @@
       <c r="B54" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="D54" s="3" t="s">
+      <c r="D54" s="1" t="s">
         <v>329</v>
       </c>
       <c r="E54" s="2" t="s">
@@ -7423,7 +7416,7 @@
       <c r="I54" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="1" t="s">
         <v>330</v>
       </c>
       <c r="K54" s="2" t="s">
@@ -7431,7 +7424,7 @@
       </c>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="3"/>
+      <c r="N54" s="1"/>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
@@ -7440,10 +7433,10 @@
       <c r="B55" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D55" s="3" t="s">
+      <c r="D55" s="1" t="s">
         <v>334</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -7461,7 +7454,7 @@
       <c r="I55" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J55" s="3" t="s">
+      <c r="J55" s="1" t="s">
         <v>335</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -7469,7 +7462,7 @@
       </c>
       <c r="L55" s="2"/>
       <c r="M55" s="2"/>
-      <c r="N55" s="3"/>
+      <c r="N55" s="1"/>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
@@ -7478,10 +7471,10 @@
       <c r="B56" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="D56" s="3" t="s">
+      <c r="D56" s="1" t="s">
         <v>339</v>
       </c>
       <c r="E56" s="2" t="s">
@@ -7499,7 +7492,7 @@
       <c r="I56" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J56" s="3" t="s">
+      <c r="J56" s="1" t="s">
         <v>340</v>
       </c>
       <c r="K56" s="2" t="s">
@@ -7507,7 +7500,7 @@
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="2"/>
-      <c r="N56" s="3"/>
+      <c r="N56" s="1"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
@@ -7516,10 +7509,10 @@
       <c r="B57" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D57" s="3" t="s">
+      <c r="D57" s="1" t="s">
         <v>344</v>
       </c>
       <c r="E57" s="2" t="s">
@@ -7537,7 +7530,7 @@
       <c r="I57" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J57" s="3" t="s">
+      <c r="J57" s="1" t="s">
         <v>345</v>
       </c>
       <c r="K57" s="2" t="s">
@@ -7545,7 +7538,7 @@
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="2"/>
-      <c r="N57" s="3"/>
+      <c r="N57" s="1"/>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
@@ -7554,10 +7547,10 @@
       <c r="B58" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>349</v>
       </c>
       <c r="E58" s="2" t="s">
@@ -7575,7 +7568,7 @@
       <c r="I58" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J58" s="3" t="s">
+      <c r="J58" s="1" t="s">
         <v>350</v>
       </c>
       <c r="K58" s="2" t="s">
@@ -7583,7 +7576,7 @@
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="2"/>
-      <c r="N58" s="3"/>
+      <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
@@ -7592,10 +7585,10 @@
       <c r="B59" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>354</v>
       </c>
       <c r="E59" s="2" t="s">
@@ -7613,7 +7606,7 @@
       <c r="I59" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="1" t="s">
         <v>355</v>
       </c>
       <c r="K59" s="2" t="s">
@@ -7621,7 +7614,7 @@
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="2"/>
-      <c r="N59" s="3"/>
+      <c r="N59" s="1"/>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
@@ -7630,10 +7623,10 @@
       <c r="B60" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D60" s="3" t="s">
+      <c r="D60" s="1" t="s">
         <v>359</v>
       </c>
       <c r="E60" s="2" t="s">
@@ -7651,7 +7644,7 @@
       <c r="I60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="J60" s="3" t="s">
+      <c r="J60" s="1" t="s">
         <v>360</v>
       </c>
       <c r="K60" s="2" t="s">
@@ -7659,7 +7652,7 @@
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="2"/>
-      <c r="N60" s="3"/>
+      <c r="N60" s="1"/>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
@@ -7668,10 +7661,10 @@
       <c r="B61" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="D61" s="3" t="s">
+      <c r="D61" s="1" t="s">
         <v>364</v>
       </c>
       <c r="E61" s="2" t="s">
@@ -7689,7 +7682,7 @@
       <c r="I61" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J61" s="3" t="s">
+      <c r="J61" s="1" t="s">
         <v>367</v>
       </c>
       <c r="K61" s="2" t="s">
@@ -7697,7 +7690,7 @@
       </c>
       <c r="L61" s="2"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="3"/>
+      <c r="N61" s="1"/>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
@@ -7706,10 +7699,10 @@
       <c r="B62" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="D62" s="3" t="s">
+      <c r="D62" s="1" t="s">
         <v>371</v>
       </c>
       <c r="E62" s="2" t="s">
@@ -7727,7 +7720,7 @@
       <c r="I62" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="1" t="s">
         <v>372</v>
       </c>
       <c r="K62" s="2" t="s">
@@ -7735,7 +7728,7 @@
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="2"/>
-      <c r="N62" s="3"/>
+      <c r="N62" s="1"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
@@ -7744,10 +7737,10 @@
       <c r="B63" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="1" t="s">
         <v>375</v>
       </c>
-      <c r="D63" s="3" t="s">
+      <c r="D63" s="1" t="s">
         <v>376</v>
       </c>
       <c r="E63" s="2" t="s">
@@ -7765,7 +7758,7 @@
       <c r="I63" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="1" t="s">
         <v>378</v>
       </c>
       <c r="K63" s="2" t="s">
@@ -7773,7 +7766,7 @@
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
-      <c r="N63" s="3"/>
+      <c r="N63" s="1"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
@@ -7782,10 +7775,10 @@
       <c r="B64" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="D64" s="3" t="s">
+      <c r="D64" s="1" t="s">
         <v>382</v>
       </c>
       <c r="E64" s="2" t="s">
@@ -7803,7 +7796,7 @@
       <c r="I64" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J64" s="3" t="s">
+      <c r="J64" s="1" t="s">
         <v>383</v>
       </c>
       <c r="K64" s="2" t="s">
@@ -7811,7 +7804,7 @@
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="2"/>
-      <c r="N64" s="3"/>
+      <c r="N64" s="1"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
@@ -7820,10 +7813,10 @@
       <c r="B65" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="1" t="s">
         <v>386</v>
       </c>
-      <c r="D65" s="3" t="s">
+      <c r="D65" s="1" t="s">
         <v>387</v>
       </c>
       <c r="E65" s="2" t="s">
@@ -7841,7 +7834,7 @@
       <c r="I65" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J65" s="3" t="s">
+      <c r="J65" s="1" t="s">
         <v>388</v>
       </c>
       <c r="K65" s="2" t="s">
@@ -7849,7 +7842,7 @@
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
-      <c r="N65" s="3"/>
+      <c r="N65" s="1"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
@@ -7858,10 +7851,10 @@
       <c r="B66" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="1" t="s">
         <v>391</v>
       </c>
-      <c r="D66" s="3" t="s">
+      <c r="D66" s="1" t="s">
         <v>392</v>
       </c>
       <c r="E66" s="2" t="s">
@@ -7879,7 +7872,7 @@
       <c r="I66" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="1" t="s">
         <v>394</v>
       </c>
       <c r="K66" s="2" t="s">
@@ -7887,7 +7880,7 @@
       </c>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
-      <c r="N66" s="3"/>
+      <c r="N66" s="1"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
@@ -7896,10 +7889,10 @@
       <c r="B67" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>398</v>
       </c>
       <c r="E67" s="2" t="s">
@@ -7917,7 +7910,7 @@
       <c r="I67" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="1" t="s">
         <v>400</v>
       </c>
       <c r="K67" s="2" t="s">
@@ -7925,7 +7918,7 @@
       </c>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
-      <c r="N67" s="3"/>
+      <c r="N67" s="1"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
@@ -7934,10 +7927,10 @@
       <c r="B68" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>404</v>
       </c>
       <c r="E68" s="2" t="s">
@@ -7955,7 +7948,7 @@
       <c r="I68" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="1" t="s">
         <v>405</v>
       </c>
       <c r="K68" s="2" t="s">
@@ -7963,7 +7956,7 @@
       </c>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
-      <c r="N68" s="3"/>
+      <c r="N68" s="1"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
@@ -7972,10 +7965,10 @@
       <c r="B69" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="D69" s="3" t="s">
+      <c r="D69" s="1" t="s">
         <v>409</v>
       </c>
       <c r="E69" s="2" t="s">
@@ -7993,7 +7986,7 @@
       <c r="I69" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="1" t="s">
         <v>411</v>
       </c>
       <c r="K69" s="2" t="s">
@@ -8001,7 +7994,7 @@
       </c>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="3"/>
+      <c r="N69" s="1"/>
     </row>
     <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
@@ -8010,10 +8003,10 @@
       <c r="B70" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="1" t="s">
         <v>414</v>
       </c>
-      <c r="D70" s="3" t="s">
+      <c r="D70" s="1" t="s">
         <v>415</v>
       </c>
       <c r="E70" s="2" t="s">
@@ -8031,7 +8024,7 @@
       <c r="I70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="1" t="s">
         <v>416</v>
       </c>
       <c r="K70" s="2" t="s">
@@ -8039,7 +8032,7 @@
       </c>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
-      <c r="N70" s="3"/>
+      <c r="N70" s="1"/>
     </row>
     <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
@@ -8048,10 +8041,10 @@
       <c r="B71" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="1" t="s">
         <v>419</v>
       </c>
-      <c r="D71" s="3" t="s">
+      <c r="D71" s="1" t="s">
         <v>420</v>
       </c>
       <c r="E71" s="2" t="s">
@@ -8069,7 +8062,7 @@
       <c r="I71" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="1" t="s">
         <v>421</v>
       </c>
       <c r="K71" s="2" t="s">
@@ -8077,7 +8070,7 @@
       </c>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
-      <c r="N71" s="3"/>
+      <c r="N71" s="1"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
@@ -8086,10 +8079,10 @@
       <c r="B72" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="1" t="s">
         <v>424</v>
       </c>
-      <c r="D72" s="3" t="s">
+      <c r="D72" s="1" t="s">
         <v>425</v>
       </c>
       <c r="E72" s="2" t="s">
@@ -8107,7 +8100,7 @@
       <c r="I72" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="1" t="s">
         <v>426</v>
       </c>
       <c r="K72" s="2" t="s">
@@ -8115,7 +8108,7 @@
       </c>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
-      <c r="N72" s="3"/>
+      <c r="N72" s="1"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
@@ -8124,10 +8117,10 @@
       <c r="B73" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="D73" s="1" t="s">
         <v>430</v>
       </c>
       <c r="E73" s="2" t="s">
@@ -8145,7 +8138,7 @@
       <c r="I73" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J73" s="3" t="s">
+      <c r="J73" s="1" t="s">
         <v>433</v>
       </c>
       <c r="K73" s="2" t="s">
@@ -8153,7 +8146,7 @@
       </c>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
-      <c r="N73" s="3"/>
+      <c r="N73" s="1"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
@@ -8162,10 +8155,10 @@
       <c r="B74" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="D74" s="1" t="s">
         <v>437</v>
       </c>
       <c r="E74" s="2" t="s">
@@ -8183,7 +8176,7 @@
       <c r="I74" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="1" t="s">
         <v>439</v>
       </c>
       <c r="K74" s="2" t="s">
@@ -8191,7 +8184,7 @@
       </c>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
-      <c r="N74" s="3"/>
+      <c r="N74" s="1"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
@@ -8200,10 +8193,10 @@
       <c r="B75" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="D75" s="1" t="s">
         <v>443</v>
       </c>
       <c r="E75" s="2" t="s">
@@ -8221,7 +8214,7 @@
       <c r="I75" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="1" t="s">
         <v>445</v>
       </c>
       <c r="K75" s="2" t="s">
@@ -8229,7 +8222,7 @@
       </c>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
-      <c r="N75" s="3"/>
+      <c r="N75" s="1"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
@@ -8238,10 +8231,10 @@
       <c r="B76" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="D76" s="3" t="s">
+      <c r="D76" s="1" t="s">
         <v>449</v>
       </c>
       <c r="E76" s="2" t="s">
@@ -8259,7 +8252,7 @@
       <c r="I76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="1" t="s">
         <v>450</v>
       </c>
       <c r="K76" s="2" t="s">
@@ -8267,7 +8260,7 @@
       </c>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
-      <c r="N76" s="3"/>
+      <c r="N76" s="1"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
@@ -8276,10 +8269,10 @@
       <c r="B77" s="2" t="s">
         <v>452</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="1" t="s">
         <v>453</v>
       </c>
-      <c r="D77" s="3" t="s">
+      <c r="D77" s="1" t="s">
         <v>454</v>
       </c>
       <c r="E77" s="2" t="s">
@@ -8297,7 +8290,7 @@
       <c r="I77" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="1" t="s">
         <v>455</v>
       </c>
       <c r="K77" s="2" t="s">
@@ -8305,7 +8298,7 @@
       </c>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
-      <c r="N77" s="3"/>
+      <c r="N77" s="1"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
@@ -8314,10 +8307,10 @@
       <c r="B78" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="D78" s="3" t="s">
+      <c r="D78" s="1" t="s">
         <v>459</v>
       </c>
       <c r="E78" s="2" t="s">
@@ -8335,7 +8328,7 @@
       <c r="I78" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="1" t="s">
         <v>460</v>
       </c>
       <c r="K78" s="2" t="s">
@@ -8343,7 +8336,7 @@
       </c>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
-      <c r="N78" s="3"/>
+      <c r="N78" s="1"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
@@ -8352,10 +8345,10 @@
       <c r="B79" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="D79" s="3" t="s">
+      <c r="D79" s="1" t="s">
         <v>464</v>
       </c>
       <c r="E79" s="2" t="s">
@@ -8373,7 +8366,7 @@
       <c r="I79" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="1" t="s">
         <v>466</v>
       </c>
       <c r="K79" s="2" t="s">
@@ -8381,7 +8374,7 @@
       </c>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
-      <c r="N79" s="3"/>
+      <c r="N79" s="1"/>
     </row>
     <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
@@ -8390,10 +8383,10 @@
       <c r="B80" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="D80" s="3" t="s">
+      <c r="D80" s="1" t="s">
         <v>470</v>
       </c>
       <c r="E80" s="2" t="s">
@@ -8411,7 +8404,7 @@
       <c r="I80" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="1" t="s">
         <v>472</v>
       </c>
       <c r="K80" s="2" t="s">
@@ -8419,7 +8412,7 @@
       </c>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
-      <c r="N80" s="3"/>
+      <c r="N80" s="1"/>
     </row>
     <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
@@ -8428,10 +8421,10 @@
       <c r="B81" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="D81" s="3" t="s">
+      <c r="D81" s="1" t="s">
         <v>476</v>
       </c>
       <c r="E81" s="2" t="s">
@@ -8449,7 +8442,7 @@
       <c r="I81" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="1" t="s">
         <v>477</v>
       </c>
       <c r="K81" s="2" t="s">
@@ -8457,7 +8450,7 @@
       </c>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
-      <c r="N81" s="3"/>
+      <c r="N81" s="1"/>
     </row>
     <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
@@ -8466,10 +8459,10 @@
       <c r="B82" s="2" t="s">
         <v>479</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="D82" s="3" t="s">
+      <c r="D82" s="1" t="s">
         <v>481</v>
       </c>
       <c r="E82" s="2" t="s">
@@ -8487,7 +8480,7 @@
       <c r="I82" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="1" t="s">
         <v>482</v>
       </c>
       <c r="K82" s="2" t="s">
@@ -8495,7 +8488,7 @@
       </c>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
-      <c r="N82" s="3"/>
+      <c r="N82" s="1"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
@@ -8504,10 +8497,10 @@
       <c r="B83" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="1" t="s">
         <v>485</v>
       </c>
-      <c r="D83" s="3" t="s">
+      <c r="D83" s="1" t="s">
         <v>486</v>
       </c>
       <c r="E83" s="2" t="s">
@@ -8525,7 +8518,7 @@
       <c r="I83" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J83" s="3" t="s">
+      <c r="J83" s="1" t="s">
         <v>487</v>
       </c>
       <c r="K83" s="2" t="s">
@@ -8533,7 +8526,7 @@
       </c>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
-      <c r="N83" s="3"/>
+      <c r="N83" s="1"/>
     </row>
     <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
@@ -8542,10 +8535,10 @@
       <c r="B84" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="D84" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>491</v>
       </c>
       <c r="E84" s="2" t="s">
@@ -8563,7 +8556,7 @@
       <c r="I84" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="1" t="s">
         <v>492</v>
       </c>
       <c r="K84" s="2" t="s">
@@ -8571,7 +8564,7 @@
       </c>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
-      <c r="N84" s="3"/>
+      <c r="N84" s="1"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
@@ -8580,10 +8573,10 @@
       <c r="B85" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="1" t="s">
         <v>495</v>
       </c>
-      <c r="D85" s="3" t="s">
+      <c r="D85" s="1" t="s">
         <v>496</v>
       </c>
       <c r="E85" s="2" t="s">
@@ -8601,7 +8594,7 @@
       <c r="I85" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="1" t="s">
         <v>498</v>
       </c>
       <c r="K85" s="2" t="s">
@@ -8609,7 +8602,7 @@
       </c>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
-      <c r="N85" s="3"/>
+      <c r="N85" s="1"/>
     </row>
     <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
@@ -8618,10 +8611,10 @@
       <c r="B86" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="D86" s="3" t="s">
+      <c r="D86" s="1" t="s">
         <v>502</v>
       </c>
       <c r="E86" s="2" t="s">
@@ -8639,7 +8632,7 @@
       <c r="I86" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="1" t="s">
         <v>503</v>
       </c>
       <c r="K86" s="2" t="s">
@@ -8647,7 +8640,7 @@
       </c>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
-      <c r="N86" s="3"/>
+      <c r="N86" s="1"/>
     </row>
     <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
@@ -8656,10 +8649,10 @@
       <c r="B87" s="2" t="s">
         <v>505</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="D87" s="3" t="s">
+      <c r="D87" s="1" t="s">
         <v>507</v>
       </c>
       <c r="E87" s="2" t="s">
@@ -8677,7 +8670,7 @@
       <c r="I87" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="1" t="s">
         <v>509</v>
       </c>
       <c r="K87" s="2" t="s">
@@ -8685,7 +8678,7 @@
       </c>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
-      <c r="N87" s="3"/>
+      <c r="N87" s="1"/>
     </row>
     <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
@@ -8694,10 +8687,10 @@
       <c r="B88" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="D88" s="3" t="s">
+      <c r="D88" s="1" t="s">
         <v>513</v>
       </c>
       <c r="E88" s="2" t="s">
@@ -8715,7 +8708,7 @@
       <c r="I88" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J88" s="3" t="s">
+      <c r="J88" s="1" t="s">
         <v>514</v>
       </c>
       <c r="K88" s="2" t="s">
@@ -8723,7 +8716,7 @@
       </c>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
-      <c r="N88" s="3"/>
+      <c r="N88" s="1"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
@@ -8732,10 +8725,10 @@
       <c r="B89" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D89" s="1" t="s">
         <v>518</v>
       </c>
       <c r="E89" s="2" t="s">
@@ -8753,7 +8746,7 @@
       <c r="I89" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J89" s="3" t="s">
+      <c r="J89" s="1" t="s">
         <v>519</v>
       </c>
       <c r="K89" s="2" t="s">
@@ -8761,7 +8754,7 @@
       </c>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
-      <c r="N89" s="3"/>
+      <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
@@ -8770,10 +8763,10 @@
       <c r="B90" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="1" t="s">
         <v>522</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="1" t="s">
         <v>523</v>
       </c>
       <c r="E90" s="2" t="s">
@@ -8791,7 +8784,7 @@
       <c r="I90" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J90" s="3" t="s">
+      <c r="J90" s="1" t="s">
         <v>524</v>
       </c>
       <c r="K90" s="2" t="s">
@@ -8799,7 +8792,7 @@
       </c>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
-      <c r="N90" s="3"/>
+      <c r="N90" s="1"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
@@ -8808,10 +8801,10 @@
       <c r="B91" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="D91" s="3" t="s">
+      <c r="D91" s="1" t="s">
         <v>528</v>
       </c>
       <c r="E91" s="2" t="s">
@@ -8829,7 +8822,7 @@
       <c r="I91" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="J91" s="3" t="s">
+      <c r="J91" s="1" t="s">
         <v>529</v>
       </c>
       <c r="K91" s="2" t="s">
@@ -8837,7 +8830,7 @@
       </c>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
-      <c r="N91" s="3"/>
+      <c r="N91" s="1"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
@@ -8846,10 +8839,10 @@
       <c r="B92" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="D92" s="3" t="s">
+      <c r="D92" s="1" t="s">
         <v>532</v>
       </c>
       <c r="E92" s="2" t="s">
@@ -8867,7 +8860,7 @@
       <c r="I92" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J92" s="3" t="s">
+      <c r="J92" s="1" t="s">
         <v>534</v>
       </c>
       <c r="K92" s="2" t="s">
@@ -8875,7 +8868,7 @@
       </c>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="3"/>
+      <c r="N92" s="1"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
@@ -8884,10 +8877,10 @@
       <c r="B93" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>536</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>537</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -8905,7 +8898,7 @@
       <c r="I93" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="1" t="s">
         <v>538</v>
       </c>
       <c r="K93" s="2" t="s">
@@ -8913,7 +8906,7 @@
       </c>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
-      <c r="N93" s="3"/>
+      <c r="N93" s="1"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
@@ -8922,10 +8915,10 @@
       <c r="B94" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>541</v>
       </c>
       <c r="E94" s="2" t="s">
@@ -8943,7 +8936,7 @@
       <c r="I94" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="1" t="s">
         <v>542</v>
       </c>
       <c r="K94" s="2" t="s">
@@ -8951,7 +8944,7 @@
       </c>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
-      <c r="N94" s="3"/>
+      <c r="N94" s="1"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
@@ -8960,10 +8953,10 @@
       <c r="B95" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="D95" s="3" t="s">
+      <c r="D95" s="1" t="s">
         <v>545</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -8981,7 +8974,7 @@
       <c r="I95" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J95" s="3" t="s">
+      <c r="J95" s="1" t="s">
         <v>546</v>
       </c>
       <c r="K95" s="2" t="s">
@@ -8989,7 +8982,7 @@
       </c>
       <c r="L95" s="2"/>
       <c r="M95" s="2"/>
-      <c r="N95" s="3"/>
+      <c r="N95" s="1"/>
     </row>
     <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
@@ -8998,10 +8991,10 @@
       <c r="B96" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="D96" s="3" t="s">
+      <c r="D96" s="1" t="s">
         <v>549</v>
       </c>
       <c r="E96" s="2" t="s">
@@ -9019,7 +9012,7 @@
       <c r="I96" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J96" s="3" t="s">
+      <c r="J96" s="1" t="s">
         <v>553</v>
       </c>
       <c r="K96" s="2" t="s">
@@ -9027,7 +9020,7 @@
       </c>
       <c r="L96" s="2"/>
       <c r="M96" s="2"/>
-      <c r="N96" s="3"/>
+      <c r="N96" s="1"/>
     </row>
     <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
@@ -9036,10 +9029,10 @@
       <c r="B97" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="D97" s="3" t="s">
+      <c r="D97" s="1" t="s">
         <v>556</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -9057,7 +9050,7 @@
       <c r="I97" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="1" t="s">
         <v>558</v>
       </c>
       <c r="K97" s="2" t="s">
@@ -9065,7 +9058,7 @@
       </c>
       <c r="L97" s="2"/>
       <c r="M97" s="2"/>
-      <c r="N97" s="3"/>
+      <c r="N97" s="1"/>
     </row>
     <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
@@ -9074,10 +9067,10 @@
       <c r="B98" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="D98" s="3" t="s">
+      <c r="D98" s="1" t="s">
         <v>561</v>
       </c>
       <c r="E98" s="2" t="s">
@@ -9095,7 +9088,7 @@
       <c r="I98" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="J98" s="3" t="s">
+      <c r="J98" s="1" t="s">
         <v>563</v>
       </c>
       <c r="K98" s="2" t="s">
@@ -9103,7 +9096,7 @@
       </c>
       <c r="L98" s="2"/>
       <c r="M98" s="2"/>
-      <c r="N98" s="3"/>
+      <c r="N98" s="1"/>
     </row>
     <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
@@ -9112,10 +9105,10 @@
       <c r="B99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>566</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -9133,7 +9126,7 @@
       <c r="I99" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J99" s="3" t="s">
+      <c r="J99" s="1" t="s">
         <v>568</v>
       </c>
       <c r="K99" s="2" t="s">
@@ -9141,7 +9134,7 @@
       </c>
       <c r="L99" s="2"/>
       <c r="M99" s="2"/>
-      <c r="N99" s="3"/>
+      <c r="N99" s="1"/>
     </row>
     <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
@@ -9150,10 +9143,10 @@
       <c r="B100" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>570</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>571</v>
       </c>
       <c r="E100" s="2" t="s">
@@ -9171,7 +9164,7 @@
       <c r="I100" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J100" s="3" t="s">
+      <c r="J100" s="1" t="s">
         <v>573</v>
       </c>
       <c r="K100" s="2" t="s">
@@ -9179,7 +9172,7 @@
       </c>
       <c r="L100" s="2"/>
       <c r="M100" s="2"/>
-      <c r="N100" s="3"/>
+      <c r="N100" s="1"/>
     </row>
     <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
@@ -9188,10 +9181,10 @@
       <c r="B101" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D101" s="3" t="s">
+      <c r="D101" s="1" t="s">
         <v>576</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -9209,7 +9202,7 @@
       <c r="I101" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="J101" s="3" t="s">
+      <c r="J101" s="1" t="s">
         <v>577</v>
       </c>
       <c r="K101" s="2" t="s">
@@ -9217,7 +9210,7 @@
       </c>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
-      <c r="N101" s="3"/>
+      <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
@@ -9226,10 +9219,10 @@
       <c r="B102" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="1" t="s">
         <v>579</v>
       </c>
-      <c r="D102" s="3" t="s">
+      <c r="D102" s="1" t="s">
         <v>580</v>
       </c>
       <c r="E102" s="2" t="s">
@@ -9247,7 +9240,7 @@
       <c r="I102" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J102" s="3" t="s">
+      <c r="J102" s="1" t="s">
         <v>581</v>
       </c>
       <c r="K102" s="2" t="s">
@@ -9255,7 +9248,7 @@
       </c>
       <c r="L102" s="2"/>
       <c r="M102" s="2"/>
-      <c r="N102" s="3"/>
+      <c r="N102" s="1"/>
     </row>
     <row r="103" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
@@ -9264,10 +9257,10 @@
       <c r="B103" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="1" t="s">
         <v>583</v>
       </c>
-      <c r="D103" s="3" t="s">
+      <c r="D103" s="1" t="s">
         <v>584</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -9285,7 +9278,7 @@
       <c r="I103" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J103" s="3" t="s">
+      <c r="J103" s="1" t="s">
         <v>585</v>
       </c>
       <c r="K103" s="2" t="s">
@@ -9293,7 +9286,7 @@
       </c>
       <c r="L103" s="2"/>
       <c r="M103" s="2"/>
-      <c r="N103" s="3"/>
+      <c r="N103" s="1"/>
     </row>
     <row r="104" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
@@ -9302,10 +9295,10 @@
       <c r="B104" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D104" s="1" t="s">
         <v>588</v>
       </c>
       <c r="E104" s="2" t="s">
@@ -9323,7 +9316,7 @@
       <c r="I104" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J104" s="3" t="s">
+      <c r="J104" s="1" t="s">
         <v>589</v>
       </c>
       <c r="K104" s="2" t="s">
@@ -9331,7 +9324,7 @@
       </c>
       <c r="L104" s="2"/>
       <c r="M104" s="2"/>
-      <c r="N104" s="3"/>
+      <c r="N104" s="1"/>
     </row>
     <row r="105" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
@@ -9340,10 +9333,10 @@
       <c r="B105" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="D105" s="3" t="s">
+      <c r="D105" s="1" t="s">
         <v>592</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -9361,7 +9354,7 @@
       <c r="I105" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="J105" s="3" t="s">
+      <c r="J105" s="1" t="s">
         <v>594</v>
       </c>
       <c r="K105" s="2" t="s">
@@ -9369,7 +9362,7 @@
       </c>
       <c r="L105" s="2"/>
       <c r="M105" s="2"/>
-      <c r="N105" s="3"/>
+      <c r="N105" s="1"/>
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
@@ -9378,10 +9371,10 @@
       <c r="B106" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>597</v>
       </c>
       <c r="E106" s="2" t="s">
@@ -9399,7 +9392,7 @@
       <c r="I106" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J106" s="3" t="s">
+      <c r="J106" s="1" t="s">
         <v>598</v>
       </c>
       <c r="K106" s="2" t="s">
@@ -9407,7 +9400,7 @@
       </c>
       <c r="L106" s="2"/>
       <c r="M106" s="2"/>
-      <c r="N106" s="3"/>
+      <c r="N106" s="1"/>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
@@ -9416,10 +9409,10 @@
       <c r="B107" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>601</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -9437,7 +9430,7 @@
       <c r="I107" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="J107" s="3" t="s">
+      <c r="J107" s="1" t="s">
         <v>603</v>
       </c>
       <c r="K107" s="2" t="s">
@@ -9445,7 +9438,7 @@
       </c>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
-      <c r="N107" s="3"/>
+      <c r="N107" s="1"/>
     </row>
     <row r="108" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
@@ -9454,10 +9447,10 @@
       <c r="B108" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="D108" s="3" t="s">
+      <c r="D108" s="1" t="s">
         <v>606</v>
       </c>
       <c r="E108" s="2" t="s">
@@ -9475,7 +9468,7 @@
       <c r="I108" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J108" s="3" t="s">
+      <c r="J108" s="1" t="s">
         <v>607</v>
       </c>
       <c r="K108" s="2" t="s">
@@ -9483,7 +9476,7 @@
       </c>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
-      <c r="N108" s="3"/>
+      <c r="N108" s="1"/>
     </row>
     <row r="109" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
@@ -9492,10 +9485,10 @@
       <c r="B109" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="D109" s="3" t="s">
+      <c r="D109" s="1" t="s">
         <v>610</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -9513,7 +9506,7 @@
       <c r="I109" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="1" t="s">
         <v>612</v>
       </c>
       <c r="K109" s="2" t="s">
@@ -9521,7 +9514,7 @@
       </c>
       <c r="L109" s="2"/>
       <c r="M109" s="2"/>
-      <c r="N109" s="3"/>
+      <c r="N109" s="1"/>
     </row>
     <row r="110" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
@@ -9530,10 +9523,10 @@
       <c r="B110" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="1" t="s">
         <v>614</v>
       </c>
-      <c r="D110" s="3" t="s">
+      <c r="D110" s="1" t="s">
         <v>615</v>
       </c>
       <c r="E110" s="2" t="s">
@@ -9551,7 +9544,7 @@
       <c r="I110" s="2" t="s">
         <v>557</v>
       </c>
-      <c r="J110" s="3" t="s">
+      <c r="J110" s="1" t="s">
         <v>616</v>
       </c>
       <c r="K110" s="2" t="s">
@@ -9559,7 +9552,7 @@
       </c>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="3"/>
+      <c r="N110" s="1"/>
     </row>
     <row r="111" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
@@ -9568,10 +9561,10 @@
       <c r="B111" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="D111" s="3" t="s">
+      <c r="D111" s="1" t="s">
         <v>619</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -9589,7 +9582,7 @@
       <c r="I111" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J111" s="3" t="s">
+      <c r="J111" s="1" t="s">
         <v>621</v>
       </c>
       <c r="K111" s="2" t="s">
@@ -9597,7 +9590,7 @@
       </c>
       <c r="L111" s="2"/>
       <c r="M111" s="2"/>
-      <c r="N111" s="3"/>
+      <c r="N111" s="1"/>
     </row>
     <row r="112" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
@@ -9606,10 +9599,10 @@
       <c r="B112" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="1" t="s">
         <v>623</v>
       </c>
-      <c r="D112" s="3" t="s">
+      <c r="D112" s="1" t="s">
         <v>624</v>
       </c>
       <c r="E112" s="2" t="s">
@@ -9627,7 +9620,7 @@
       <c r="I112" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="J112" s="3" t="s">
+      <c r="J112" s="1" t="s">
         <v>625</v>
       </c>
       <c r="K112" s="2" t="s">
@@ -9635,7 +9628,7 @@
       </c>
       <c r="L112" s="2"/>
       <c r="M112" s="2"/>
-      <c r="N112" s="3"/>
+      <c r="N112" s="1"/>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
@@ -9644,10 +9637,10 @@
       <c r="B113" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="D113" s="3" t="s">
+      <c r="D113" s="1" t="s">
         <v>628</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -9665,7 +9658,7 @@
       <c r="I113" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J113" s="3" t="s">
+      <c r="J113" s="1" t="s">
         <v>629</v>
       </c>
       <c r="K113" s="2" t="s">
@@ -9673,7 +9666,7 @@
       </c>
       <c r="L113" s="2"/>
       <c r="M113" s="2"/>
-      <c r="N113" s="3"/>
+      <c r="N113" s="1"/>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
@@ -9682,10 +9675,10 @@
       <c r="B114" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="D114" s="3" t="s">
+      <c r="D114" s="1" t="s">
         <v>632</v>
       </c>
       <c r="E114" s="2" t="s">
@@ -9703,7 +9696,7 @@
       <c r="I114" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J114" s="3" t="s">
+      <c r="J114" s="1" t="s">
         <v>635</v>
       </c>
       <c r="K114" s="2" t="s">
@@ -9711,7 +9704,7 @@
       </c>
       <c r="L114" s="2"/>
       <c r="M114" s="2"/>
-      <c r="N114" s="3"/>
+      <c r="N114" s="1"/>
     </row>
     <row r="115" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
@@ -9720,10 +9713,10 @@
       <c r="B115" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D115" s="3" t="s">
+      <c r="D115" s="1" t="s">
         <v>638</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -9741,7 +9734,7 @@
       <c r="I115" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J115" s="3" t="s">
+      <c r="J115" s="1" t="s">
         <v>639</v>
       </c>
       <c r="K115" s="2" t="s">
@@ -9749,7 +9742,7 @@
       </c>
       <c r="L115" s="2"/>
       <c r="M115" s="2"/>
-      <c r="N115" s="3"/>
+      <c r="N115" s="1"/>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
@@ -9758,10 +9751,10 @@
       <c r="B116" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="D116" s="3" t="s">
+      <c r="D116" s="1" t="s">
         <v>642</v>
       </c>
       <c r="E116" s="2" t="s">
@@ -9779,7 +9772,7 @@
       <c r="I116" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J116" s="3" t="s">
+      <c r="J116" s="1" t="s">
         <v>644</v>
       </c>
       <c r="K116" s="2" t="s">
@@ -9787,7 +9780,7 @@
       </c>
       <c r="L116" s="2"/>
       <c r="M116" s="2"/>
-      <c r="N116" s="3"/>
+      <c r="N116" s="1"/>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
@@ -9796,10 +9789,10 @@
       <c r="B117" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="D117" s="3" t="s">
+      <c r="D117" s="1" t="s">
         <v>647</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -9817,7 +9810,7 @@
       <c r="I117" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="J117" s="3" t="s">
+      <c r="J117" s="1" t="s">
         <v>650</v>
       </c>
       <c r="K117" s="2" t="s">
@@ -9825,7 +9818,7 @@
       </c>
       <c r="L117" s="2"/>
       <c r="M117" s="2"/>
-      <c r="N117" s="3"/>
+      <c r="N117" s="1"/>
     </row>
     <row r="118" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
@@ -9834,10 +9827,10 @@
       <c r="B118" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="D118" s="3" t="s">
+      <c r="D118" s="1" t="s">
         <v>653</v>
       </c>
       <c r="E118" s="2" t="s">
@@ -9855,7 +9848,7 @@
       <c r="I118" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="1" t="s">
         <v>654</v>
       </c>
       <c r="K118" s="2" t="s">
@@ -9863,7 +9856,7 @@
       </c>
       <c r="L118" s="2"/>
       <c r="M118" s="2"/>
-      <c r="N118" s="3"/>
+      <c r="N118" s="1"/>
     </row>
     <row r="119" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
@@ -9872,10 +9865,10 @@
       <c r="B119" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="D119" s="3" t="s">
+      <c r="D119" s="1" t="s">
         <v>657</v>
       </c>
       <c r="E119" s="2" t="s">
@@ -9893,7 +9886,7 @@
       <c r="I119" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J119" s="3" t="s">
+      <c r="J119" s="1" t="s">
         <v>658</v>
       </c>
       <c r="K119" s="2" t="s">
@@ -9901,7 +9894,7 @@
       </c>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
-      <c r="N119" s="3"/>
+      <c r="N119" s="1"/>
     </row>
     <row r="120" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
@@ -9910,10 +9903,10 @@
       <c r="B120" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="1" t="s">
         <v>660</v>
       </c>
-      <c r="D120" s="3" t="s">
+      <c r="D120" s="1" t="s">
         <v>661</v>
       </c>
       <c r="E120" s="2" t="s">
@@ -9931,7 +9924,7 @@
       <c r="I120" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J120" s="3" t="s">
+      <c r="J120" s="1" t="s">
         <v>662</v>
       </c>
       <c r="K120" s="2" t="s">
@@ -9939,7 +9932,7 @@
       </c>
       <c r="L120" s="2"/>
       <c r="M120" s="2"/>
-      <c r="N120" s="3"/>
+      <c r="N120" s="1"/>
     </row>
     <row r="121" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
@@ -9948,10 +9941,10 @@
       <c r="B121" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="1" t="s">
         <v>664</v>
       </c>
-      <c r="D121" s="3" t="s">
+      <c r="D121" s="1" t="s">
         <v>665</v>
       </c>
       <c r="E121" s="2" t="s">
@@ -9969,7 +9962,7 @@
       <c r="I121" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="J121" s="3" t="s">
+      <c r="J121" s="1" t="s">
         <v>666</v>
       </c>
       <c r="K121" s="2" t="s">
@@ -9977,7 +9970,7 @@
       </c>
       <c r="L121" s="2"/>
       <c r="M121" s="2"/>
-      <c r="N121" s="3"/>
+      <c r="N121" s="1"/>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
@@ -9986,10 +9979,10 @@
       <c r="B122" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="1" t="s">
         <v>668</v>
       </c>
-      <c r="D122" s="3" t="s">
+      <c r="D122" s="1" t="s">
         <v>669</v>
       </c>
       <c r="E122" s="2" t="s">
@@ -10007,7 +10000,7 @@
       <c r="I122" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J122" s="3" t="s">
+      <c r="J122" s="1" t="s">
         <v>670</v>
       </c>
       <c r="K122" s="2" t="s">
@@ -10015,7 +10008,7 @@
       </c>
       <c r="L122" s="2"/>
       <c r="M122" s="2"/>
-      <c r="N122" s="3"/>
+      <c r="N122" s="1"/>
     </row>
     <row r="123" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
@@ -10024,10 +10017,10 @@
       <c r="B123" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="1" t="s">
         <v>672</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D123" s="1" t="s">
         <v>673</v>
       </c>
       <c r="E123" s="2" t="s">
@@ -10045,7 +10038,7 @@
       <c r="I123" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J123" s="3" t="s">
+      <c r="J123" s="1" t="s">
         <v>675</v>
       </c>
       <c r="K123" s="2" t="s">
@@ -10053,7 +10046,7 @@
       </c>
       <c r="L123" s="2"/>
       <c r="M123" s="2"/>
-      <c r="N123" s="3"/>
+      <c r="N123" s="1"/>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
@@ -10062,10 +10055,10 @@
       <c r="B124" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="1" t="s">
         <v>677</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D124" s="1" t="s">
         <v>678</v>
       </c>
       <c r="E124" s="2" t="s">
@@ -10083,7 +10076,7 @@
       <c r="I124" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="J124" s="3" t="s">
+      <c r="J124" s="1" t="s">
         <v>680</v>
       </c>
       <c r="K124" s="2" t="s">
@@ -10091,7 +10084,7 @@
       </c>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-      <c r="N124" s="3"/>
+      <c r="N124" s="1"/>
     </row>
     <row r="125" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
@@ -10100,10 +10093,10 @@
       <c r="B125" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="1" t="s">
         <v>682</v>
       </c>
-      <c r="D125" s="3" t="s">
+      <c r="D125" s="1" t="s">
         <v>683</v>
       </c>
       <c r="E125" s="2" t="s">
@@ -10121,7 +10114,7 @@
       <c r="I125" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="J125" s="3" t="s">
+      <c r="J125" s="1" t="s">
         <v>684</v>
       </c>
       <c r="K125" s="2" t="s">
@@ -10129,7 +10122,7 @@
       </c>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="3"/>
+      <c r="N125" s="1"/>
     </row>
     <row r="126" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
@@ -10138,10 +10131,10 @@
       <c r="B126" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C126" s="3" t="s">
+      <c r="C126" s="1" t="s">
         <v>686</v>
       </c>
-      <c r="D126" s="3" t="s">
+      <c r="D126" s="1" t="s">
         <v>687</v>
       </c>
       <c r="E126" s="2" t="s">
@@ -10159,7 +10152,7 @@
       <c r="I126" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="J126" s="3" t="s">
+      <c r="J126" s="1" t="s">
         <v>688</v>
       </c>
       <c r="K126" s="2" t="s">
@@ -10167,7 +10160,7 @@
       </c>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="3"/>
+      <c r="N126" s="1"/>
     </row>
     <row r="127" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
@@ -10176,10 +10169,10 @@
       <c r="B127" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="C127" s="1" t="s">
         <v>690</v>
       </c>
-      <c r="D127" s="3" t="s">
+      <c r="D127" s="1" t="s">
         <v>691</v>
       </c>
       <c r="E127" s="2" t="s">
@@ -10197,7 +10190,7 @@
       <c r="I127" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J127" s="3" t="s">
+      <c r="J127" s="1" t="s">
         <v>692</v>
       </c>
       <c r="K127" s="2" t="s">
@@ -10205,7 +10198,7 @@
       </c>
       <c r="L127" s="2"/>
       <c r="M127" s="2"/>
-      <c r="N127" s="3"/>
+      <c r="N127" s="1"/>
     </row>
     <row r="128" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
@@ -10214,10 +10207,10 @@
       <c r="B128" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="C128" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D128" s="1" t="s">
         <v>695</v>
       </c>
       <c r="E128" s="2" t="s">
@@ -10235,7 +10228,7 @@
       <c r="I128" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="1" t="s">
         <v>697</v>
       </c>
       <c r="K128" s="2" t="s">
@@ -10243,7 +10236,7 @@
       </c>
       <c r="L128" s="2"/>
       <c r="M128" s="2"/>
-      <c r="N128" s="3"/>
+      <c r="N128" s="1"/>
     </row>
     <row r="129" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
@@ -10252,10 +10245,10 @@
       <c r="B129" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="1" t="s">
         <v>699</v>
       </c>
-      <c r="D129" s="3" t="s">
+      <c r="D129" s="1" t="s">
         <v>700</v>
       </c>
       <c r="E129" s="2" t="s">
@@ -10273,7 +10266,7 @@
       <c r="I129" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="J129" s="3" t="s">
+      <c r="J129" s="1" t="s">
         <v>701</v>
       </c>
       <c r="K129" s="2" t="s">
@@ -10281,7 +10274,7 @@
       </c>
       <c r="L129" s="2"/>
       <c r="M129" s="2"/>
-      <c r="N129" s="3"/>
+      <c r="N129" s="1"/>
     </row>
     <row r="130" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
@@ -10290,10 +10283,10 @@
       <c r="B130" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="C130" s="1" t="s">
         <v>703</v>
       </c>
-      <c r="D130" s="3" t="s">
+      <c r="D130" s="1" t="s">
         <v>704</v>
       </c>
       <c r="E130" s="2" t="s">
@@ -10311,7 +10304,7 @@
       <c r="I130" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J130" s="3" t="s">
+      <c r="J130" s="1" t="s">
         <v>706</v>
       </c>
       <c r="K130" s="2" t="s">
@@ -10319,7 +10312,7 @@
       </c>
       <c r="L130" s="2"/>
       <c r="M130" s="2"/>
-      <c r="N130" s="3"/>
+      <c r="N130" s="1"/>
     </row>
     <row r="131" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
@@ -10328,10 +10321,10 @@
       <c r="B131" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="C131" s="1" t="s">
         <v>708</v>
       </c>
-      <c r="D131" s="3" t="s">
+      <c r="D131" s="1" t="s">
         <v>709</v>
       </c>
       <c r="E131" s="2" t="s">
@@ -10349,7 +10342,7 @@
       <c r="I131" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="J131" s="3" t="s">
+      <c r="J131" s="1" t="s">
         <v>711</v>
       </c>
       <c r="K131" s="2" t="s">
@@ -10357,7 +10350,7 @@
       </c>
       <c r="L131" s="2"/>
       <c r="M131" s="2"/>
-      <c r="N131" s="3"/>
+      <c r="N131" s="1"/>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
@@ -10366,10 +10359,10 @@
       <c r="B132" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="3" t="s">
+      <c r="C132" s="1" t="s">
         <v>713</v>
       </c>
-      <c r="D132" s="3" t="s">
+      <c r="D132" s="1" t="s">
         <v>714</v>
       </c>
       <c r="E132" s="2" t="s">
@@ -10387,7 +10380,7 @@
       <c r="I132" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J132" s="3" t="s">
+      <c r="J132" s="1" t="s">
         <v>715</v>
       </c>
       <c r="K132" s="2" t="s">
@@ -10395,7 +10388,7 @@
       </c>
       <c r="L132" s="2"/>
       <c r="M132" s="2"/>
-      <c r="N132" s="3"/>
+      <c r="N132" s="1"/>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
@@ -10404,10 +10397,10 @@
       <c r="B133" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="C133" s="1" t="s">
         <v>717</v>
       </c>
-      <c r="D133" s="3" t="s">
+      <c r="D133" s="1" t="s">
         <v>718</v>
       </c>
       <c r="E133" s="2" t="s">
@@ -10425,7 +10418,7 @@
       <c r="I133" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J133" s="3" t="s">
+      <c r="J133" s="1" t="s">
         <v>720</v>
       </c>
       <c r="K133" s="2" t="s">
@@ -10433,7 +10426,7 @@
       </c>
       <c r="L133" s="2"/>
       <c r="M133" s="2"/>
-      <c r="N133" s="3"/>
+      <c r="N133" s="1"/>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
@@ -10442,10 +10435,10 @@
       <c r="B134" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C134" s="3" t="s">
+      <c r="C134" s="1" t="s">
         <v>722</v>
       </c>
-      <c r="D134" s="3" t="s">
+      <c r="D134" s="1" t="s">
         <v>723</v>
       </c>
       <c r="E134" s="2" t="s">
@@ -10463,7 +10456,7 @@
       <c r="I134" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J134" s="3" t="s">
+      <c r="J134" s="1" t="s">
         <v>725</v>
       </c>
       <c r="K134" s="2" t="s">
@@ -10471,7 +10464,7 @@
       </c>
       <c r="L134" s="2"/>
       <c r="M134" s="2"/>
-      <c r="N134" s="3"/>
+      <c r="N134" s="1"/>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
@@ -10480,10 +10473,10 @@
       <c r="B135" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="C135" s="3" t="s">
+      <c r="C135" s="1" t="s">
         <v>727</v>
       </c>
-      <c r="D135" s="3" t="s">
+      <c r="D135" s="1" t="s">
         <v>728</v>
       </c>
       <c r="E135" s="2" t="s">
@@ -10501,7 +10494,7 @@
       <c r="I135" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="J135" s="3" t="s">
+      <c r="J135" s="1" t="s">
         <v>729</v>
       </c>
       <c r="K135" s="2" t="s">
@@ -10509,7 +10502,7 @@
       </c>
       <c r="L135" s="2"/>
       <c r="M135" s="2"/>
-      <c r="N135" s="3"/>
+      <c r="N135" s="1"/>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
@@ -10518,10 +10511,10 @@
       <c r="B136" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="C136" s="1" t="s">
         <v>731</v>
       </c>
-      <c r="D136" s="3" t="s">
+      <c r="D136" s="1" t="s">
         <v>732</v>
       </c>
       <c r="E136" s="2" t="s">
@@ -10539,7 +10532,7 @@
       <c r="I136" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J136" s="3" t="s">
+      <c r="J136" s="1" t="s">
         <v>734</v>
       </c>
       <c r="K136" s="2" t="s">
@@ -10547,7 +10540,7 @@
       </c>
       <c r="L136" s="2"/>
       <c r="M136" s="2"/>
-      <c r="N136" s="3"/>
+      <c r="N136" s="1"/>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
@@ -10556,10 +10549,10 @@
       <c r="B137" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="C137" s="1" t="s">
         <v>736</v>
       </c>
-      <c r="D137" s="3" t="s">
+      <c r="D137" s="1" t="s">
         <v>737</v>
       </c>
       <c r="E137" s="2" t="s">
@@ -10577,7 +10570,7 @@
       <c r="I137" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J137" s="3" t="s">
+      <c r="J137" s="1" t="s">
         <v>738</v>
       </c>
       <c r="K137" s="2" t="s">
@@ -10585,7 +10578,7 @@
       </c>
       <c r="L137" s="2"/>
       <c r="M137" s="2"/>
-      <c r="N137" s="3"/>
+      <c r="N137" s="1"/>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
@@ -10594,10 +10587,10 @@
       <c r="B138" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="C138" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="D138" s="3" t="s">
+      <c r="D138" s="1" t="s">
         <v>741</v>
       </c>
       <c r="E138" s="2" t="s">
@@ -10615,7 +10608,7 @@
       <c r="I138" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J138" s="3" t="s">
+      <c r="J138" s="1" t="s">
         <v>742</v>
       </c>
       <c r="K138" s="2" t="s">
@@ -10623,7 +10616,7 @@
       </c>
       <c r="L138" s="2"/>
       <c r="M138" s="2"/>
-      <c r="N138" s="3"/>
+      <c r="N138" s="1"/>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
@@ -10632,10 +10625,10 @@
       <c r="B139" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="C139" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D139" s="3" t="s">
+      <c r="D139" s="1" t="s">
         <v>745</v>
       </c>
       <c r="E139" s="2" t="s">
@@ -10653,7 +10646,7 @@
       <c r="I139" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J139" s="3" t="s">
+      <c r="J139" s="1" t="s">
         <v>747</v>
       </c>
       <c r="K139" s="2" t="s">
@@ -10661,7 +10654,7 @@
       </c>
       <c r="L139" s="2"/>
       <c r="M139" s="2"/>
-      <c r="N139" s="3"/>
+      <c r="N139" s="1"/>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
@@ -10670,10 +10663,10 @@
       <c r="B140" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="C140" s="1" t="s">
         <v>749</v>
       </c>
-      <c r="D140" s="3" t="s">
+      <c r="D140" s="1" t="s">
         <v>750</v>
       </c>
       <c r="E140" s="2" t="s">
@@ -10691,7 +10684,7 @@
       <c r="I140" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="J140" s="3" t="s">
+      <c r="J140" s="1" t="s">
         <v>751</v>
       </c>
       <c r="K140" s="2" t="s">
@@ -10699,7 +10692,7 @@
       </c>
       <c r="L140" s="2"/>
       <c r="M140" s="2"/>
-      <c r="N140" s="3"/>
+      <c r="N140" s="1"/>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
@@ -10708,10 +10701,10 @@
       <c r="B141" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C141" s="3" t="s">
+      <c r="C141" s="1" t="s">
         <v>753</v>
       </c>
-      <c r="D141" s="3" t="s">
+      <c r="D141" s="1" t="s">
         <v>754</v>
       </c>
       <c r="E141" s="2" t="s">
@@ -10729,7 +10722,7 @@
       <c r="I141" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="J141" s="3" t="s">
+      <c r="J141" s="1" t="s">
         <v>755</v>
       </c>
       <c r="K141" s="2" t="s">
@@ -10737,7 +10730,7 @@
       </c>
       <c r="L141" s="2"/>
       <c r="M141" s="2"/>
-      <c r="N141" s="3"/>
+      <c r="N141" s="1"/>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
@@ -10746,10 +10739,10 @@
       <c r="B142" s="2" t="s">
         <v>757</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="C142" s="1" t="s">
         <v>758</v>
       </c>
-      <c r="D142" s="3" t="s">
+      <c r="D142" s="1" t="s">
         <v>759</v>
       </c>
       <c r="E142" s="2" t="s">
@@ -10767,7 +10760,7 @@
       <c r="I142" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J142" s="3" t="s">
+      <c r="J142" s="1" t="s">
         <v>761</v>
       </c>
       <c r="K142" s="2" t="s">
@@ -10775,7 +10768,7 @@
       </c>
       <c r="L142" s="2"/>
       <c r="M142" s="2"/>
-      <c r="N142" s="3"/>
+      <c r="N142" s="1"/>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
@@ -10784,10 +10777,10 @@
       <c r="B143" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="C143" s="3" t="s">
+      <c r="C143" s="1" t="s">
         <v>764</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D143" s="1" t="s">
         <v>765</v>
       </c>
       <c r="E143" s="2" t="s">
@@ -10805,7 +10798,7 @@
       <c r="I143" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="1" t="s">
         <v>766</v>
       </c>
       <c r="K143" s="2" t="s">
@@ -10813,7 +10806,7 @@
       </c>
       <c r="L143" s="2"/>
       <c r="M143" s="2"/>
-      <c r="N143" s="3"/>
+      <c r="N143" s="1"/>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
@@ -10822,10 +10815,10 @@
       <c r="B144" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="C144" s="3" t="s">
+      <c r="C144" s="1" t="s">
         <v>769</v>
       </c>
-      <c r="D144" s="3" t="s">
+      <c r="D144" s="1" t="s">
         <v>770</v>
       </c>
       <c r="E144" s="2" t="s">
@@ -10843,7 +10836,7 @@
       <c r="I144" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J144" s="3" t="s">
+      <c r="J144" s="1" t="s">
         <v>771</v>
       </c>
       <c r="K144" s="2" t="s">
@@ -10851,7 +10844,7 @@
       </c>
       <c r="L144" s="2"/>
       <c r="M144" s="2"/>
-      <c r="N144" s="3"/>
+      <c r="N144" s="1"/>
     </row>
     <row r="145" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
@@ -10860,10 +10853,10 @@
       <c r="B145" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="C145" s="3" t="s">
+      <c r="C145" s="1" t="s">
         <v>774</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D145" s="1" t="s">
         <v>775</v>
       </c>
       <c r="E145" s="2" t="s">
@@ -10881,7 +10874,7 @@
       <c r="I145" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="J145" s="3" t="s">
+      <c r="J145" s="1" t="s">
         <v>777</v>
       </c>
       <c r="K145" s="2" t="s">
@@ -10889,7 +10882,7 @@
       </c>
       <c r="L145" s="2"/>
       <c r="M145" s="2"/>
-      <c r="N145" s="3"/>
+      <c r="N145" s="1"/>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
@@ -10898,10 +10891,10 @@
       <c r="B146" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="C146" s="3" t="s">
+      <c r="C146" s="1" t="s">
         <v>780</v>
       </c>
-      <c r="D146" s="3" t="s">
+      <c r="D146" s="1" t="s">
         <v>781</v>
       </c>
       <c r="E146" s="2" t="s">
@@ -10919,7 +10912,7 @@
       <c r="I146" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="J146" s="3" t="s">
+      <c r="J146" s="1" t="s">
         <v>782</v>
       </c>
       <c r="K146" s="2" t="s">
@@ -10927,7 +10920,7 @@
       </c>
       <c r="L146" s="2"/>
       <c r="M146" s="2"/>
-      <c r="N146" s="3"/>
+      <c r="N146" s="1"/>
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
@@ -10936,10 +10929,10 @@
       <c r="B147" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="C147" s="1" t="s">
         <v>785</v>
       </c>
-      <c r="D147" s="3" t="s">
+      <c r="D147" s="1" t="s">
         <v>786</v>
       </c>
       <c r="E147" s="2" t="s">
@@ -10957,7 +10950,7 @@
       <c r="I147" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="J147" s="3" t="s">
+      <c r="J147" s="1" t="s">
         <v>788</v>
       </c>
       <c r="K147" s="2" t="s">
@@ -10965,7 +10958,7 @@
       </c>
       <c r="L147" s="2"/>
       <c r="M147" s="2"/>
-      <c r="N147" s="3"/>
+      <c r="N147" s="1"/>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A148" s="2">
@@ -10974,10 +10967,10 @@
       <c r="B148" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="C148" s="1" t="s">
         <v>791</v>
       </c>
-      <c r="D148" s="3" t="s">
+      <c r="D148" s="1" t="s">
         <v>792</v>
       </c>
       <c r="E148" s="2" t="s">
@@ -10995,7 +10988,7 @@
       <c r="I148" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="J148" s="3" t="s">
+      <c r="J148" s="1" t="s">
         <v>793</v>
       </c>
       <c r="K148" s="2" t="s">
@@ -11003,7 +10996,7 @@
       </c>
       <c r="L148" s="2"/>
       <c r="M148" s="2"/>
-      <c r="N148" s="3"/>
+      <c r="N148" s="1"/>
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A149" s="2">
@@ -11012,10 +11005,10 @@
       <c r="B149" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="C149" s="3" t="s">
+      <c r="C149" s="1" t="s">
         <v>796</v>
       </c>
-      <c r="D149" s="3" t="s">
+      <c r="D149" s="1" t="s">
         <v>797</v>
       </c>
       <c r="E149" s="2" t="s">
@@ -11033,7 +11026,7 @@
       <c r="I149" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="J149" s="3" t="s">
+      <c r="J149" s="1" t="s">
         <v>799</v>
       </c>
       <c r="K149" s="2" t="s">
@@ -11041,7 +11034,7 @@
       </c>
       <c r="L149" s="2"/>
       <c r="M149" s="2"/>
-      <c r="N149" s="3"/>
+      <c r="N149" s="1"/>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A150" s="2">
@@ -11050,10 +11043,10 @@
       <c r="B150" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="C150" s="3" t="s">
+      <c r="C150" s="1" t="s">
         <v>802</v>
       </c>
-      <c r="D150" s="3" t="s">
+      <c r="D150" s="1" t="s">
         <v>803</v>
       </c>
       <c r="E150" s="2" t="s">
@@ -11071,7 +11064,7 @@
       <c r="I150" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="J150" s="1" t="s">
         <v>804</v>
       </c>
       <c r="K150" s="2" t="s">
@@ -11079,7 +11072,7 @@
       </c>
       <c r="L150" s="2"/>
       <c r="M150" s="2"/>
-      <c r="N150" s="3"/>
+      <c r="N150" s="1"/>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A151" s="2">
@@ -11088,10 +11081,10 @@
       <c r="B151" s="2" t="s">
         <v>806</v>
       </c>
-      <c r="C151" s="3" t="s">
+      <c r="C151" s="1" t="s">
         <v>807</v>
       </c>
-      <c r="D151" s="3" t="s">
+      <c r="D151" s="1" t="s">
         <v>808</v>
       </c>
       <c r="E151" s="2" t="s">
@@ -11109,7 +11102,7 @@
       <c r="I151" s="2" t="s">
         <v>611</v>
       </c>
-      <c r="J151" s="3" t="s">
+      <c r="J151" s="1" t="s">
         <v>809</v>
       </c>
       <c r="K151" s="2" t="s">
@@ -11117,7 +11110,7 @@
       </c>
       <c r="L151" s="2"/>
       <c r="M151" s="2"/>
-      <c r="N151" s="3"/>
+      <c r="N151" s="1"/>
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A152" s="2">
@@ -11126,10 +11119,10 @@
       <c r="B152" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="C152" s="3" t="s">
+      <c r="C152" s="1" t="s">
         <v>812</v>
       </c>
-      <c r="D152" s="3" t="s">
+      <c r="D152" s="1" t="s">
         <v>813</v>
       </c>
       <c r="E152" s="2" t="s">
@@ -11147,7 +11140,7 @@
       <c r="I152" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J152" s="3" t="s">
+      <c r="J152" s="1" t="s">
         <v>814</v>
       </c>
       <c r="K152" s="2" t="s">
@@ -11155,7 +11148,7 @@
       </c>
       <c r="L152" s="2"/>
       <c r="M152" s="2"/>
-      <c r="N152" s="3"/>
+      <c r="N152" s="1"/>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A153" s="2">
@@ -11164,10 +11157,10 @@
       <c r="B153" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="C153" s="3" t="s">
+      <c r="C153" s="1" t="s">
         <v>817</v>
       </c>
-      <c r="D153" s="3" t="s">
+      <c r="D153" s="1" t="s">
         <v>818</v>
       </c>
       <c r="E153" s="2" t="s">
@@ -11185,7 +11178,7 @@
       <c r="I153" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="J153" s="3" t="s">
+      <c r="J153" s="1" t="s">
         <v>819</v>
       </c>
       <c r="K153" s="2" t="s">
@@ -11193,7 +11186,7 @@
       </c>
       <c r="L153" s="2"/>
       <c r="M153" s="2"/>
-      <c r="N153" s="3"/>
+      <c r="N153" s="1"/>
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A154" s="2">
@@ -11202,10 +11195,10 @@
       <c r="B154" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="C154" s="3" t="s">
+      <c r="C154" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D154" s="3" t="s">
+      <c r="D154" s="1" t="s">
         <v>823</v>
       </c>
       <c r="E154" s="2" t="s">
@@ -11223,7 +11216,7 @@
       <c r="I154" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="J154" s="3" t="s">
+      <c r="J154" s="1" t="s">
         <v>824</v>
       </c>
       <c r="K154" s="2" t="s">
@@ -11231,7 +11224,7 @@
       </c>
       <c r="L154" s="2"/>
       <c r="M154" s="2"/>
-      <c r="N154" s="3"/>
+      <c r="N154" s="1"/>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A155" s="2">
@@ -11240,10 +11233,10 @@
       <c r="B155" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="C155" s="3" t="s">
+      <c r="C155" s="1" t="s">
         <v>827</v>
       </c>
-      <c r="D155" s="3" t="s">
+      <c r="D155" s="1" t="s">
         <v>828</v>
       </c>
       <c r="E155" s="2" t="s">
@@ -11261,7 +11254,7 @@
       <c r="I155" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J155" s="3" t="s">
+      <c r="J155" s="1" t="s">
         <v>829</v>
       </c>
       <c r="K155" s="2" t="s">
@@ -11269,7 +11262,7 @@
       </c>
       <c r="L155" s="2"/>
       <c r="M155" s="2"/>
-      <c r="N155" s="3"/>
+      <c r="N155" s="1"/>
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A156" s="2">
@@ -11278,10 +11271,10 @@
       <c r="B156" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="C156" s="3" t="s">
+      <c r="C156" s="1" t="s">
         <v>832</v>
       </c>
-      <c r="D156" s="3" t="s">
+      <c r="D156" s="1" t="s">
         <v>833</v>
       </c>
       <c r="E156" s="2" t="s">
@@ -11299,7 +11292,7 @@
       <c r="I156" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="J156" s="3" t="s">
+      <c r="J156" s="1" t="s">
         <v>835</v>
       </c>
       <c r="K156" s="2" t="s">
@@ -11307,7 +11300,7 @@
       </c>
       <c r="L156" s="2"/>
       <c r="M156" s="2"/>
-      <c r="N156" s="3"/>
+      <c r="N156" s="1"/>
     </row>
     <row r="157" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A157" s="2">
@@ -11316,10 +11309,10 @@
       <c r="B157" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="C157" s="3" t="s">
+      <c r="C157" s="1" t="s">
         <v>838</v>
       </c>
-      <c r="D157" s="3" t="s">
+      <c r="D157" s="1" t="s">
         <v>839</v>
       </c>
       <c r="E157" s="2" t="s">
@@ -11337,7 +11330,7 @@
       <c r="I157" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="J157" s="3" t="s">
+      <c r="J157" s="1" t="s">
         <v>840</v>
       </c>
       <c r="K157" s="2" t="s">
@@ -11345,7 +11338,7 @@
       </c>
       <c r="L157" s="2"/>
       <c r="M157" s="2"/>
-      <c r="N157" s="3"/>
+      <c r="N157" s="1"/>
     </row>
     <row r="158" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A158" s="2">
@@ -11354,10 +11347,10 @@
       <c r="B158" s="2" t="s">
         <v>842</v>
       </c>
-      <c r="C158" s="3" t="s">
+      <c r="C158" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="D158" s="3" t="s">
+      <c r="D158" s="1" t="s">
         <v>844</v>
       </c>
       <c r="E158" s="2" t="s">
@@ -11375,7 +11368,7 @@
       <c r="I158" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="J158" s="3" t="s">
+      <c r="J158" s="1" t="s">
         <v>845</v>
       </c>
       <c r="K158" s="2" t="s">
@@ -11383,7 +11376,7 @@
       </c>
       <c r="L158" s="2"/>
       <c r="M158" s="2"/>
-      <c r="N158" s="3"/>
+      <c r="N158" s="1"/>
     </row>
     <row r="159" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A159" s="2">
@@ -11392,10 +11385,10 @@
       <c r="B159" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="C159" s="3" t="s">
+      <c r="C159" s="1" t="s">
         <v>848</v>
       </c>
-      <c r="D159" s="3" t="s">
+      <c r="D159" s="1" t="s">
         <v>849</v>
       </c>
       <c r="E159" s="2" t="s">
@@ -11413,7 +11406,7 @@
       <c r="I159" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="J159" s="3" t="s">
+      <c r="J159" s="1" t="s">
         <v>851</v>
       </c>
       <c r="K159" s="2" t="s">
@@ -11421,7 +11414,7 @@
       </c>
       <c r="L159" s="2"/>
       <c r="M159" s="2"/>
-      <c r="N159" s="3"/>
+      <c r="N159" s="1"/>
     </row>
     <row r="160" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A160" s="2">
@@ -11430,10 +11423,10 @@
       <c r="B160" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="C160" s="3" t="s">
+      <c r="C160" s="1" t="s">
         <v>854</v>
       </c>
-      <c r="D160" s="3" t="s">
+      <c r="D160" s="1" t="s">
         <v>855</v>
       </c>
       <c r="E160" s="2" t="s">
@@ -11451,7 +11444,7 @@
       <c r="I160" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="J160" s="3" t="s">
+      <c r="J160" s="1" t="s">
         <v>856</v>
       </c>
       <c r="K160" s="2" t="s">
@@ -11459,7 +11452,7 @@
       </c>
       <c r="L160" s="2"/>
       <c r="M160" s="2"/>
-      <c r="N160" s="3"/>
+      <c r="N160" s="1"/>
     </row>
     <row r="161" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A161" s="2">
@@ -11468,10 +11461,10 @@
       <c r="B161" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="C161" s="3" t="s">
+      <c r="C161" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="D161" s="3" t="s">
+      <c r="D161" s="1" t="s">
         <v>860</v>
       </c>
       <c r="E161" s="2" t="s">
@@ -11489,7 +11482,7 @@
       <c r="I161" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J161" s="3" t="s">
+      <c r="J161" s="1" t="s">
         <v>861</v>
       </c>
       <c r="K161" s="2" t="s">
@@ -11497,7 +11490,7 @@
       </c>
       <c r="L161" s="2"/>
       <c r="M161" s="2"/>
-      <c r="N161" s="3"/>
+      <c r="N161" s="1"/>
     </row>
     <row r="162" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A162" s="2">
@@ -11506,10 +11499,10 @@
       <c r="B162" s="2" t="s">
         <v>863</v>
       </c>
-      <c r="C162" s="3" t="s">
+      <c r="C162" s="1" t="s">
         <v>864</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D162" s="1" t="s">
         <v>865</v>
       </c>
       <c r="E162" s="2" t="s">
@@ -11527,7 +11520,7 @@
       <c r="I162" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="J162" s="3" t="s">
+      <c r="J162" s="1" t="s">
         <v>867</v>
       </c>
       <c r="K162" s="2" t="s">
@@ -11535,7 +11528,7 @@
       </c>
       <c r="L162" s="2"/>
       <c r="M162" s="2"/>
-      <c r="N162" s="3"/>
+      <c r="N162" s="1"/>
     </row>
     <row r="163" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A163" s="2">
@@ -11544,10 +11537,10 @@
       <c r="B163" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="C163" s="1" t="s">
         <v>870</v>
       </c>
-      <c r="D163" s="3" t="s">
+      <c r="D163" s="1" t="s">
         <v>871</v>
       </c>
       <c r="E163" s="2" t="s">
@@ -11565,7 +11558,7 @@
       <c r="I163" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="J163" s="3" t="s">
+      <c r="J163" s="1" t="s">
         <v>872</v>
       </c>
       <c r="K163" s="2" t="s">
@@ -11573,7 +11566,7 @@
       </c>
       <c r="L163" s="2"/>
       <c r="M163" s="2"/>
-      <c r="N163" s="3"/>
+      <c r="N163" s="1"/>
     </row>
     <row r="164" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A164" s="2">
@@ -11582,10 +11575,10 @@
       <c r="B164" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="C164" s="1" t="s">
         <v>875</v>
       </c>
-      <c r="D164" s="3" t="s">
+      <c r="D164" s="1" t="s">
         <v>876</v>
       </c>
       <c r="E164" s="2" t="s">
@@ -11603,7 +11596,7 @@
       <c r="I164" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J164" s="1" t="s">
         <v>877</v>
       </c>
       <c r="K164" s="2" t="s">
@@ -11611,7 +11604,7 @@
       </c>
       <c r="L164" s="2"/>
       <c r="M164" s="2"/>
-      <c r="N164" s="3"/>
+      <c r="N164" s="1"/>
     </row>
     <row r="165" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A165" s="2">
@@ -11620,10 +11613,10 @@
       <c r="B165" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="C165" s="1" t="s">
         <v>880</v>
       </c>
-      <c r="D165" s="3" t="s">
+      <c r="D165" s="1" t="s">
         <v>881</v>
       </c>
       <c r="E165" s="2" t="s">
@@ -11641,7 +11634,7 @@
       <c r="I165" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="J165" s="3" t="s">
+      <c r="J165" s="1" t="s">
         <v>882</v>
       </c>
       <c r="K165" s="2" t="s">
@@ -11649,7 +11642,7 @@
       </c>
       <c r="L165" s="2"/>
       <c r="M165" s="2"/>
-      <c r="N165" s="3"/>
+      <c r="N165" s="1"/>
     </row>
     <row r="166" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A166" s="2">
@@ -11658,10 +11651,10 @@
       <c r="B166" s="2" t="s">
         <v>884</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="C166" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="D166" s="3" t="s">
+      <c r="D166" s="1" t="s">
         <v>886</v>
       </c>
       <c r="E166" s="2" t="s">
@@ -11679,7 +11672,7 @@
       <c r="I166" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="J166" s="3" t="s">
+      <c r="J166" s="1" t="s">
         <v>888</v>
       </c>
       <c r="K166" s="2" t="s">
@@ -11687,7 +11680,7 @@
       </c>
       <c r="L166" s="2"/>
       <c r="M166" s="2"/>
-      <c r="N166" s="3"/>
+      <c r="N166" s="1"/>
     </row>
     <row r="167" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A167" s="2">
@@ -11696,10 +11689,10 @@
       <c r="B167" s="2" t="s">
         <v>890</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="C167" s="1" t="s">
         <v>891</v>
       </c>
-      <c r="D167" s="3" t="s">
+      <c r="D167" s="1" t="s">
         <v>892</v>
       </c>
       <c r="E167" s="2" t="s">
@@ -11717,7 +11710,7 @@
       <c r="I167" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J167" s="3" t="s">
+      <c r="J167" s="1" t="s">
         <v>893</v>
       </c>
       <c r="K167" s="2" t="s">
@@ -11725,7 +11718,7 @@
       </c>
       <c r="L167" s="2"/>
       <c r="M167" s="2"/>
-      <c r="N167" s="3"/>
+      <c r="N167" s="1"/>
     </row>
     <row r="168" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A168" s="2">
@@ -11734,10 +11727,10 @@
       <c r="B168" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="C168" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="D168" s="3" t="s">
+      <c r="D168" s="1" t="s">
         <v>897</v>
       </c>
       <c r="E168" s="2" t="s">
@@ -11755,7 +11748,7 @@
       <c r="I168" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J168" s="3" t="s">
+      <c r="J168" s="1" t="s">
         <v>899</v>
       </c>
       <c r="K168" s="2" t="s">
@@ -11763,7 +11756,7 @@
       </c>
       <c r="L168" s="2"/>
       <c r="M168" s="2"/>
-      <c r="N168" s="3"/>
+      <c r="N168" s="1"/>
     </row>
     <row r="169" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A169" s="2">
@@ -11772,10 +11765,10 @@
       <c r="B169" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="C169" s="1" t="s">
         <v>902</v>
       </c>
-      <c r="D169" s="3" t="s">
+      <c r="D169" s="1" t="s">
         <v>903</v>
       </c>
       <c r="E169" s="2" t="s">
@@ -11793,7 +11786,7 @@
       <c r="I169" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J169" s="3" t="s">
+      <c r="J169" s="1" t="s">
         <v>904</v>
       </c>
       <c r="K169" s="2" t="s">
@@ -11801,7 +11794,7 @@
       </c>
       <c r="L169" s="2"/>
       <c r="M169" s="2"/>
-      <c r="N169" s="3"/>
+      <c r="N169" s="1"/>
     </row>
     <row r="170" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A170" s="2">
@@ -11810,10 +11803,10 @@
       <c r="B170" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="C170" s="1" t="s">
         <v>907</v>
       </c>
-      <c r="D170" s="3" t="s">
+      <c r="D170" s="1" t="s">
         <v>908</v>
       </c>
       <c r="E170" s="2" t="s">
@@ -11831,7 +11824,7 @@
       <c r="I170" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J170" s="3" t="s">
+      <c r="J170" s="1" t="s">
         <v>909</v>
       </c>
       <c r="K170" s="2" t="s">
@@ -11839,7 +11832,7 @@
       </c>
       <c r="L170" s="2"/>
       <c r="M170" s="2"/>
-      <c r="N170" s="3"/>
+      <c r="N170" s="1"/>
     </row>
     <row r="171" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A171" s="2">
@@ -11848,10 +11841,10 @@
       <c r="B171" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="C171" s="3" t="s">
+      <c r="C171" s="1" t="s">
         <v>912</v>
       </c>
-      <c r="D171" s="3" t="s">
+      <c r="D171" s="1" t="s">
         <v>913</v>
       </c>
       <c r="E171" s="2" t="s">
@@ -11869,7 +11862,7 @@
       <c r="I171" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J171" s="3" t="s">
+      <c r="J171" s="1" t="s">
         <v>914</v>
       </c>
       <c r="K171" s="2" t="s">
@@ -11877,7 +11870,7 @@
       </c>
       <c r="L171" s="2"/>
       <c r="M171" s="2"/>
-      <c r="N171" s="3"/>
+      <c r="N171" s="1"/>
     </row>
     <row r="172" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A172" s="2">
@@ -11886,10 +11879,10 @@
       <c r="B172" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="C172" s="3" t="s">
+      <c r="C172" s="1" t="s">
         <v>917</v>
       </c>
-      <c r="D172" s="3" t="s">
+      <c r="D172" s="1" t="s">
         <v>918</v>
       </c>
       <c r="E172" s="2" t="s">
@@ -11907,7 +11900,7 @@
       <c r="I172" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J172" s="3" t="s">
+      <c r="J172" s="1" t="s">
         <v>920</v>
       </c>
       <c r="K172" s="2" t="s">
@@ -11915,7 +11908,7 @@
       </c>
       <c r="L172" s="2"/>
       <c r="M172" s="2"/>
-      <c r="N172" s="3"/>
+      <c r="N172" s="1"/>
     </row>
     <row r="173" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A173" s="2">
@@ -11924,10 +11917,10 @@
       <c r="B173" s="2" t="s">
         <v>922</v>
       </c>
-      <c r="C173" s="3" t="s">
+      <c r="C173" s="1" t="s">
         <v>923</v>
       </c>
-      <c r="D173" s="3" t="s">
+      <c r="D173" s="1" t="s">
         <v>924</v>
       </c>
       <c r="E173" s="2" t="s">
@@ -11945,7 +11938,7 @@
       <c r="I173" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J173" s="3" t="s">
+      <c r="J173" s="1" t="s">
         <v>925</v>
       </c>
       <c r="K173" s="2" t="s">
@@ -11953,7 +11946,7 @@
       </c>
       <c r="L173" s="2"/>
       <c r="M173" s="2"/>
-      <c r="N173" s="3"/>
+      <c r="N173" s="1"/>
     </row>
     <row r="174" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A174" s="2">
@@ -11962,10 +11955,10 @@
       <c r="B174" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="C174" s="3" t="s">
+      <c r="C174" s="1" t="s">
         <v>928</v>
       </c>
-      <c r="D174" s="3" t="s">
+      <c r="D174" s="1" t="s">
         <v>929</v>
       </c>
       <c r="E174" s="2" t="s">
@@ -11983,7 +11976,7 @@
       <c r="I174" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J174" s="3" t="s">
+      <c r="J174" s="1" t="s">
         <v>930</v>
       </c>
       <c r="K174" s="2" t="s">
@@ -11991,7 +11984,7 @@
       </c>
       <c r="L174" s="2"/>
       <c r="M174" s="2"/>
-      <c r="N174" s="3"/>
+      <c r="N174" s="1"/>
     </row>
     <row r="175" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A175" s="2">
@@ -12000,10 +11993,10 @@
       <c r="B175" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="C175" s="1" t="s">
         <v>933</v>
       </c>
-      <c r="D175" s="3" t="s">
+      <c r="D175" s="1" t="s">
         <v>934</v>
       </c>
       <c r="E175" s="2" t="s">
@@ -12021,7 +12014,7 @@
       <c r="I175" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J175" s="1" t="s">
         <v>936</v>
       </c>
       <c r="K175" s="2" t="s">
@@ -12029,7 +12022,7 @@
       </c>
       <c r="L175" s="2"/>
       <c r="M175" s="2"/>
-      <c r="N175" s="3"/>
+      <c r="N175" s="1"/>
     </row>
     <row r="176" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A176" s="2">
@@ -12038,10 +12031,10 @@
       <c r="B176" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="C176" s="1" t="s">
         <v>939</v>
       </c>
-      <c r="D176" s="3" t="s">
+      <c r="D176" s="1" t="s">
         <v>940</v>
       </c>
       <c r="E176" s="2" t="s">
@@ -12059,7 +12052,7 @@
       <c r="I176" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="J176" s="3" t="s">
+      <c r="J176" s="1" t="s">
         <v>942</v>
       </c>
       <c r="K176" s="2" t="s">
@@ -12067,7 +12060,7 @@
       </c>
       <c r="L176" s="2"/>
       <c r="M176" s="2"/>
-      <c r="N176" s="3"/>
+      <c r="N176" s="1"/>
     </row>
     <row r="177" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A177" s="2">
@@ -12076,10 +12069,10 @@
       <c r="B177" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="C177" s="1" t="s">
         <v>945</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D177" s="1" t="s">
         <v>946</v>
       </c>
       <c r="E177" s="2" t="s">
@@ -12097,7 +12090,7 @@
       <c r="I177" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="J177" s="3" t="s">
+      <c r="J177" s="1" t="s">
         <v>948</v>
       </c>
       <c r="K177" s="2" t="s">
@@ -12105,7 +12098,7 @@
       </c>
       <c r="L177" s="2"/>
       <c r="M177" s="2"/>
-      <c r="N177" s="3"/>
+      <c r="N177" s="1"/>
     </row>
     <row r="178" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A178" s="2">
@@ -12114,10 +12107,10 @@
       <c r="B178" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="C178" s="1" t="s">
         <v>951</v>
       </c>
-      <c r="D178" s="3" t="s">
+      <c r="D178" s="1" t="s">
         <v>952</v>
       </c>
       <c r="E178" s="2" t="s">
@@ -12135,7 +12128,7 @@
       <c r="I178" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J178" s="3" t="s">
+      <c r="J178" s="1" t="s">
         <v>953</v>
       </c>
       <c r="K178" s="2" t="s">
@@ -12143,7 +12136,7 @@
       </c>
       <c r="L178" s="2"/>
       <c r="M178" s="2"/>
-      <c r="N178" s="3"/>
+      <c r="N178" s="1"/>
     </row>
     <row r="179" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A179" s="2">
@@ -12152,10 +12145,10 @@
       <c r="B179" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="C179" s="1" t="s">
         <v>956</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D179" s="1" t="s">
         <v>957</v>
       </c>
       <c r="E179" s="2" t="s">
@@ -12173,7 +12166,7 @@
       <c r="I179" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="J179" s="3" t="s">
+      <c r="J179" s="1" t="s">
         <v>959</v>
       </c>
       <c r="K179" s="2" t="s">
@@ -12181,7 +12174,7 @@
       </c>
       <c r="L179" s="2"/>
       <c r="M179" s="2"/>
-      <c r="N179" s="3"/>
+      <c r="N179" s="1"/>
     </row>
     <row r="180" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A180" s="2">
@@ -12190,10 +12183,10 @@
       <c r="B180" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="C180" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="D180" s="3" t="s">
+      <c r="D180" s="1" t="s">
         <v>963</v>
       </c>
       <c r="E180" s="2" t="s">
@@ -12211,7 +12204,7 @@
       <c r="I180" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="J180" s="3" t="s">
+      <c r="J180" s="1" t="s">
         <v>964</v>
       </c>
       <c r="K180" s="2" t="s">
@@ -12219,7 +12212,7 @@
       </c>
       <c r="L180" s="2"/>
       <c r="M180" s="2"/>
-      <c r="N180" s="3"/>
+      <c r="N180" s="1"/>
     </row>
     <row r="181" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A181" s="2">
@@ -12228,10 +12221,10 @@
       <c r="B181" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="C181" s="1" t="s">
         <v>967</v>
       </c>
-      <c r="D181" s="3" t="s">
+      <c r="D181" s="1" t="s">
         <v>968</v>
       </c>
       <c r="E181" s="2" t="s">
@@ -12249,7 +12242,7 @@
       <c r="I181" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="J181" s="3" t="s">
+      <c r="J181" s="1" t="s">
         <v>970</v>
       </c>
       <c r="K181" s="2" t="s">
@@ -12257,7 +12250,7 @@
       </c>
       <c r="L181" s="2"/>
       <c r="M181" s="2"/>
-      <c r="N181" s="3"/>
+      <c r="N181" s="1"/>
     </row>
     <row r="182" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A182" s="2">
@@ -12266,10 +12259,10 @@
       <c r="B182" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="C182" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="D182" s="3" t="s">
+      <c r="D182" s="1" t="s">
         <v>974</v>
       </c>
       <c r="E182" s="2" t="s">
@@ -12287,7 +12280,7 @@
       <c r="I182" s="2" t="s">
         <v>976</v>
       </c>
-      <c r="J182" s="3" t="s">
+      <c r="J182" s="1" t="s">
         <v>977</v>
       </c>
       <c r="K182" s="2" t="s">
@@ -12295,7 +12288,7 @@
       </c>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
-      <c r="N182" s="3"/>
+      <c r="N182" s="1"/>
     </row>
     <row r="183" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A183" s="2">
@@ -12304,10 +12297,10 @@
       <c r="B183" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="C183" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="D183" s="3" t="s">
+      <c r="D183" s="1" t="s">
         <v>981</v>
       </c>
       <c r="E183" s="2" t="s">
@@ -12325,7 +12318,7 @@
       <c r="I183" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="J183" s="3" t="s">
+      <c r="J183" s="1" t="s">
         <v>982</v>
       </c>
       <c r="K183" s="2" t="s">
@@ -12333,7 +12326,7 @@
       </c>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
-      <c r="N183" s="3"/>
+      <c r="N183" s="1"/>
     </row>
     <row r="184" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A184" s="2">
@@ -12342,10 +12335,10 @@
       <c r="B184" s="2" t="s">
         <v>984</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="C184" s="1" t="s">
         <v>985</v>
       </c>
-      <c r="D184" s="3" t="s">
+      <c r="D184" s="1" t="s">
         <v>986</v>
       </c>
       <c r="E184" s="2" t="s">
@@ -12363,7 +12356,7 @@
       <c r="I184" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="J184" s="3" t="s">
+      <c r="J184" s="1" t="s">
         <v>988</v>
       </c>
       <c r="K184" s="2" t="s">
@@ -12371,7 +12364,7 @@
       </c>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
-      <c r="N184" s="3"/>
+      <c r="N184" s="1"/>
     </row>
     <row r="185" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A185" s="2">
@@ -12380,10 +12373,10 @@
       <c r="B185" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="C185" s="3" t="s">
+      <c r="C185" s="1" t="s">
         <v>991</v>
       </c>
-      <c r="D185" s="3" t="s">
+      <c r="D185" s="1" t="s">
         <v>992</v>
       </c>
       <c r="E185" s="2" t="s">
@@ -12401,7 +12394,7 @@
       <c r="I185" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="J185" s="3" t="s">
+      <c r="J185" s="1" t="s">
         <v>993</v>
       </c>
       <c r="K185" s="2" t="s">
@@ -12409,7 +12402,7 @@
       </c>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-      <c r="N185" s="3"/>
+      <c r="N185" s="1"/>
     </row>
     <row r="186" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A186" s="2">
@@ -12418,10 +12411,10 @@
       <c r="B186" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="C186" s="1" t="s">
         <v>996</v>
       </c>
-      <c r="D186" s="3" t="s">
+      <c r="D186" s="1" t="s">
         <v>997</v>
       </c>
       <c r="E186" s="2" t="s">
@@ -12439,7 +12432,7 @@
       <c r="I186" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="J186" s="3" t="s">
+      <c r="J186" s="1" t="s">
         <v>998</v>
       </c>
       <c r="K186" s="2" t="s">
@@ -12447,7 +12440,7 @@
       </c>
       <c r="L186" s="2"/>
       <c r="M186" s="2"/>
-      <c r="N186" s="3"/>
+      <c r="N186" s="1"/>
     </row>
     <row r="187" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A187" s="2">
@@ -12456,10 +12449,10 @@
       <c r="B187" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="C187" s="1" t="s">
         <v>1001</v>
       </c>
-      <c r="D187" s="3" t="s">
+      <c r="D187" s="1" t="s">
         <v>1002</v>
       </c>
       <c r="E187" s="2" t="s">
@@ -12477,7 +12470,7 @@
       <c r="I187" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="J187" s="3" t="s">
+      <c r="J187" s="1" t="s">
         <v>1004</v>
       </c>
       <c r="K187" s="2" t="s">
@@ -12485,7 +12478,7 @@
       </c>
       <c r="L187" s="2"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="3"/>
+      <c r="N187" s="1"/>
     </row>
     <row r="188" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A188" s="2">
@@ -12494,10 +12487,10 @@
       <c r="B188" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="C188" s="1" t="s">
         <v>1007</v>
       </c>
-      <c r="D188" s="3" t="s">
+      <c r="D188" s="1" t="s">
         <v>1008</v>
       </c>
       <c r="E188" s="2" t="s">
@@ -12515,7 +12508,7 @@
       <c r="I188" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J188" s="3" t="s">
+      <c r="J188" s="1" t="s">
         <v>1009</v>
       </c>
       <c r="K188" s="2" t="s">
@@ -12523,7 +12516,7 @@
       </c>
       <c r="L188" s="2"/>
       <c r="M188" s="2"/>
-      <c r="N188" s="3"/>
+      <c r="N188" s="1"/>
     </row>
     <row r="189" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A189" s="2">
@@ -12532,10 +12525,10 @@
       <c r="B189" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="1" t="s">
         <v>1012</v>
       </c>
-      <c r="D189" s="3" t="s">
+      <c r="D189" s="1" t="s">
         <v>1013</v>
       </c>
       <c r="E189" s="2" t="s">
@@ -12553,7 +12546,7 @@
       <c r="I189" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="J189" s="3" t="s">
+      <c r="J189" s="1" t="s">
         <v>1015</v>
       </c>
       <c r="K189" s="2" t="s">
@@ -12561,7 +12554,7 @@
       </c>
       <c r="L189" s="2"/>
       <c r="M189" s="2"/>
-      <c r="N189" s="3"/>
+      <c r="N189" s="1"/>
     </row>
     <row r="190" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A190" s="2">
@@ -12570,10 +12563,10 @@
       <c r="B190" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="1" t="s">
         <v>1018</v>
       </c>
-      <c r="D190" s="3" t="s">
+      <c r="D190" s="1" t="s">
         <v>1019</v>
       </c>
       <c r="E190" s="2" t="s">
@@ -12591,7 +12584,7 @@
       <c r="I190" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="J190" s="3" t="s">
+      <c r="J190" s="1" t="s">
         <v>1021</v>
       </c>
       <c r="K190" s="2" t="s">
@@ -12599,7 +12592,7 @@
       </c>
       <c r="L190" s="2"/>
       <c r="M190" s="2"/>
-      <c r="N190" s="3"/>
+      <c r="N190" s="1"/>
     </row>
     <row r="191" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A191" s="2">
@@ -12608,10 +12601,10 @@
       <c r="B191" s="2" t="s">
         <v>1023</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="1" t="s">
         <v>1024</v>
       </c>
-      <c r="D191" s="3" t="s">
+      <c r="D191" s="1" t="s">
         <v>1025</v>
       </c>
       <c r="E191" s="2" t="s">
@@ -12629,7 +12622,7 @@
       <c r="I191" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J191" s="3" t="s">
+      <c r="J191" s="1" t="s">
         <v>1026</v>
       </c>
       <c r="K191" s="2" t="s">
@@ -12637,7 +12630,7 @@
       </c>
       <c r="L191" s="2"/>
       <c r="M191" s="2"/>
-      <c r="N191" s="3"/>
+      <c r="N191" s="1"/>
     </row>
     <row r="192" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A192" s="2">
@@ -12646,10 +12639,10 @@
       <c r="B192" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="C192" s="3" t="s">
+      <c r="C192" s="1" t="s">
         <v>1029</v>
       </c>
-      <c r="D192" s="3" t="s">
+      <c r="D192" s="1" t="s">
         <v>1030</v>
       </c>
       <c r="E192" s="2" t="s">
@@ -12667,7 +12660,7 @@
       <c r="I192" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="J192" s="3" t="s">
+      <c r="J192" s="1" t="s">
         <v>1031</v>
       </c>
       <c r="K192" s="2" t="s">
@@ -12675,7 +12668,7 @@
       </c>
       <c r="L192" s="2"/>
       <c r="M192" s="2"/>
-      <c r="N192" s="3"/>
+      <c r="N192" s="1"/>
     </row>
     <row r="193" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A193" s="2">
@@ -12684,10 +12677,10 @@
       <c r="B193" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="C193" s="1" t="s">
         <v>1034</v>
       </c>
-      <c r="D193" s="3" t="s">
+      <c r="D193" s="1" t="s">
         <v>1035</v>
       </c>
       <c r="E193" s="2" t="s">
@@ -12705,7 +12698,7 @@
       <c r="I193" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="J193" s="3" t="s">
+      <c r="J193" s="1" t="s">
         <v>1036</v>
       </c>
       <c r="K193" s="2" t="s">
@@ -12713,7 +12706,7 @@
       </c>
       <c r="L193" s="2"/>
       <c r="M193" s="2"/>
-      <c r="N193" s="3"/>
+      <c r="N193" s="1"/>
     </row>
     <row r="194" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A194" s="2">
@@ -12722,10 +12715,10 @@
       <c r="B194" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="C194" s="1" t="s">
         <v>1039</v>
       </c>
-      <c r="D194" s="3" t="s">
+      <c r="D194" s="1" t="s">
         <v>1040</v>
       </c>
       <c r="E194" s="2" t="s">
@@ -12743,7 +12736,7 @@
       <c r="I194" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="J194" s="3" t="s">
+      <c r="J194" s="1" t="s">
         <v>1042</v>
       </c>
       <c r="K194" s="2" t="s">
@@ -12751,7 +12744,7 @@
       </c>
       <c r="L194" s="2"/>
       <c r="M194" s="2"/>
-      <c r="N194" s="3"/>
+      <c r="N194" s="1"/>
     </row>
     <row r="195" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A195" s="2">
@@ -12760,10 +12753,10 @@
       <c r="B195" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="C195" s="3" t="s">
+      <c r="C195" s="1" t="s">
         <v>1045</v>
       </c>
-      <c r="D195" s="3" t="s">
+      <c r="D195" s="1" t="s">
         <v>1046</v>
       </c>
       <c r="E195" s="2" t="s">
@@ -12781,7 +12774,7 @@
       <c r="I195" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="J195" s="3" t="s">
+      <c r="J195" s="1" t="s">
         <v>1048</v>
       </c>
       <c r="K195" s="2" t="s">
@@ -12795,10 +12788,10 @@
       <c r="B196" s="2" t="s">
         <v>1050</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="C196" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="D196" s="3" t="s">
+      <c r="D196" s="1" t="s">
         <v>1052</v>
       </c>
       <c r="E196" s="2" t="s">
@@ -12816,7 +12809,7 @@
       <c r="I196" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="J196" s="3" t="s">
+      <c r="J196" s="1" t="s">
         <v>1054</v>
       </c>
       <c r="K196" s="2" t="s">
@@ -12830,10 +12823,10 @@
       <c r="B197" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="C197" s="1" t="s">
         <v>1057</v>
       </c>
-      <c r="D197" s="3" t="s">
+      <c r="D197" s="1" t="s">
         <v>1058</v>
       </c>
       <c r="E197" s="2" t="s">
@@ -12851,7 +12844,7 @@
       <c r="I197" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="J197" s="3" t="s">
+      <c r="J197" s="1" t="s">
         <v>1060</v>
       </c>
       <c r="K197" s="2" t="s">
@@ -12865,10 +12858,10 @@
       <c r="B198" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="C198" s="1" t="s">
         <v>1063</v>
       </c>
-      <c r="D198" s="3" t="s">
+      <c r="D198" s="1" t="s">
         <v>1064</v>
       </c>
       <c r="E198" s="2" t="s">
@@ -12886,7 +12879,7 @@
       <c r="I198" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="J198" s="3" t="s">
+      <c r="J198" s="1" t="s">
         <v>1067</v>
       </c>
       <c r="K198" s="2" t="s">
@@ -12900,10 +12893,10 @@
       <c r="B199" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="C199" s="3" t="s">
+      <c r="C199" s="1" t="s">
         <v>1070</v>
       </c>
-      <c r="D199" s="3" t="s">
+      <c r="D199" s="1" t="s">
         <v>1071</v>
       </c>
       <c r="E199" s="2" t="s">
@@ -12921,7 +12914,7 @@
       <c r="I199" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="J199" s="3" t="s">
+      <c r="J199" s="1" t="s">
         <v>1072</v>
       </c>
       <c r="K199" s="2" t="s">
@@ -12935,10 +12928,10 @@
       <c r="B200" s="2" t="s">
         <v>1074</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="C200" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="D200" s="3" t="s">
+      <c r="D200" s="1" t="s">
         <v>1076</v>
       </c>
       <c r="E200" s="2" t="s">
@@ -12956,7 +12949,7 @@
       <c r="I200" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="J200" s="3" t="s">
+      <c r="J200" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="K200" s="2" t="s">
@@ -12970,10 +12963,10 @@
       <c r="B201" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="C201" s="1" t="s">
         <v>1080</v>
       </c>
-      <c r="D201" s="3" t="s">
+      <c r="D201" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="E201" s="2" t="s">
@@ -12991,7 +12984,7 @@
       <c r="I201" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="J201" s="3" t="s">
+      <c r="J201" s="1" t="s">
         <v>1083</v>
       </c>
       <c r="K201" s="2" t="s">
@@ -13005,10 +12998,10 @@
       <c r="B202" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="C202" s="3" t="s">
+      <c r="C202" s="1" t="s">
         <v>1086</v>
       </c>
-      <c r="D202" s="3" t="s">
+      <c r="D202" s="1" t="s">
         <v>1087</v>
       </c>
       <c r="E202" s="2" t="s">
@@ -13026,7 +13019,7 @@
       <c r="I202" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="J202" s="3" t="s">
+      <c r="J202" s="1" t="s">
         <v>1089</v>
       </c>
       <c r="K202" s="2" t="s">
@@ -13040,10 +13033,10 @@
       <c r="B203" s="2" t="s">
         <v>1091</v>
       </c>
-      <c r="C203" s="3" t="s">
+      <c r="C203" s="1" t="s">
         <v>1092</v>
       </c>
-      <c r="D203" s="3" t="s">
+      <c r="D203" s="1" t="s">
         <v>1093</v>
       </c>
       <c r="E203" s="2" t="s">
@@ -13061,7 +13054,7 @@
       <c r="I203" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="J203" s="3" t="s">
+      <c r="J203" s="1" t="s">
         <v>1095</v>
       </c>
       <c r="K203" s="2" t="s">
@@ -13075,10 +13068,10 @@
       <c r="B204" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="C204" s="3" t="s">
+      <c r="C204" s="1" t="s">
         <v>1098</v>
       </c>
-      <c r="D204" s="3" t="s">
+      <c r="D204" s="1" t="s">
         <v>1099</v>
       </c>
       <c r="E204" s="2" t="s">
@@ -13096,7 +13089,7 @@
       <c r="I204" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="J204" s="3" t="s">
+      <c r="J204" s="1" t="s">
         <v>1101</v>
       </c>
       <c r="K204" s="2" t="s">
@@ -13110,10 +13103,10 @@
       <c r="B205" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="C205" s="3" t="s">
+      <c r="C205" s="1" t="s">
         <v>1104</v>
       </c>
-      <c r="D205" s="3" t="s">
+      <c r="D205" s="1" t="s">
         <v>1105</v>
       </c>
       <c r="E205" s="2" t="s">
@@ -13131,7 +13124,7 @@
       <c r="I205" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="J205" s="3" t="s">
+      <c r="J205" s="1" t="s">
         <v>1106</v>
       </c>
       <c r="K205" s="2" t="s">
@@ -13145,10 +13138,10 @@
       <c r="B206" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="C206" s="3" t="s">
+      <c r="C206" s="1" t="s">
         <v>1109</v>
       </c>
-      <c r="D206" s="3" t="s">
+      <c r="D206" s="1" t="s">
         <v>1110</v>
       </c>
       <c r="E206" s="2" t="s">
@@ -13166,7 +13159,7 @@
       <c r="I206" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="J206" s="3" t="s">
+      <c r="J206" s="1" t="s">
         <v>1112</v>
       </c>
       <c r="K206" s="2" t="s">
@@ -13180,10 +13173,10 @@
       <c r="B207" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="C207" s="3" t="s">
+      <c r="C207" s="1" t="s">
         <v>1115</v>
       </c>
-      <c r="D207" s="3" t="s">
+      <c r="D207" s="1" t="s">
         <v>1116</v>
       </c>
       <c r="E207" s="2" t="s">
@@ -13201,7 +13194,7 @@
       <c r="I207" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="J207" s="3" t="s">
+      <c r="J207" s="1" t="s">
         <v>1117</v>
       </c>
       <c r="K207" s="2" t="s">
@@ -13215,10 +13208,10 @@
       <c r="B208" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="C208" s="3" t="s">
+      <c r="C208" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="D208" s="3" t="s">
+      <c r="D208" s="1" t="s">
         <v>1121</v>
       </c>
       <c r="E208" s="2" t="s">
@@ -13236,7 +13229,7 @@
       <c r="I208" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="J208" s="3" t="s">
+      <c r="J208" s="1" t="s">
         <v>1122</v>
       </c>
       <c r="K208" s="2" t="s">
@@ -13250,10 +13243,10 @@
       <c r="B209" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="C209" s="3" t="s">
+      <c r="C209" s="1" t="s">
         <v>1125</v>
       </c>
-      <c r="D209" s="3" t="s">
+      <c r="D209" s="1" t="s">
         <v>1126</v>
       </c>
       <c r="E209" s="2" t="s">
@@ -13271,7 +13264,7 @@
       <c r="I209" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="J209" s="3" t="s">
+      <c r="J209" s="1" t="s">
         <v>1128</v>
       </c>
       <c r="K209" s="2" t="s">
@@ -13285,10 +13278,10 @@
       <c r="B210" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="C210" s="3" t="s">
+      <c r="C210" s="1" t="s">
         <v>1131</v>
       </c>
-      <c r="D210" s="3" t="s">
+      <c r="D210" s="1" t="s">
         <v>1132</v>
       </c>
       <c r="E210" s="2" t="s">
@@ -13306,7 +13299,7 @@
       <c r="I210" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="J210" s="3" t="s">
+      <c r="J210" s="1" t="s">
         <v>1134</v>
       </c>
       <c r="K210" s="2" t="s">
@@ -13320,10 +13313,10 @@
       <c r="B211" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="C211" s="3" t="s">
+      <c r="C211" s="1" t="s">
         <v>1137</v>
       </c>
-      <c r="D211" s="3" t="s">
+      <c r="D211" s="1" t="s">
         <v>1138</v>
       </c>
       <c r="E211" s="2" t="s">
@@ -13341,7 +13334,7 @@
       <c r="I211" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="J211" s="3" t="s">
+      <c r="J211" s="1" t="s">
         <v>1141</v>
       </c>
       <c r="K211" s="2" t="s">
@@ -13355,10 +13348,10 @@
       <c r="B212" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="1" t="s">
         <v>1144</v>
       </c>
-      <c r="D212" s="3" t="s">
+      <c r="D212" s="1" t="s">
         <v>1145</v>
       </c>
       <c r="E212" s="2" t="s">
@@ -13376,7 +13369,7 @@
       <c r="I212" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="J212" s="3" t="s">
+      <c r="J212" s="1" t="s">
         <v>1146</v>
       </c>
       <c r="K212" s="2" t="s">
@@ -13390,10 +13383,10 @@
       <c r="B213" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="C213" s="3" t="s">
+      <c r="C213" s="1" t="s">
         <v>1149</v>
       </c>
-      <c r="D213" s="3" t="s">
+      <c r="D213" s="1" t="s">
         <v>1150</v>
       </c>
       <c r="E213" s="2" t="s">
@@ -13411,7 +13404,7 @@
       <c r="I213" s="2" t="s">
         <v>1100</v>
       </c>
-      <c r="J213" s="3" t="s">
+      <c r="J213" s="1" t="s">
         <v>1152</v>
       </c>
       <c r="K213" s="2" t="s">
@@ -13425,10 +13418,10 @@
       <c r="B214" s="2" t="s">
         <v>1154</v>
       </c>
-      <c r="C214" s="3" t="s">
+      <c r="C214" s="1" t="s">
         <v>1155</v>
       </c>
-      <c r="D214" s="3" t="s">
+      <c r="D214" s="1" t="s">
         <v>1156</v>
       </c>
       <c r="E214" s="2" t="s">
@@ -13446,7 +13439,7 @@
       <c r="I214" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="J214" s="3" t="s">
+      <c r="J214" s="1" t="s">
         <v>1157</v>
       </c>
       <c r="K214" s="2" t="s">
@@ -13460,10 +13453,10 @@
       <c r="B215" s="2" t="s">
         <v>1159</v>
       </c>
-      <c r="C215" s="3" t="s">
+      <c r="C215" s="1" t="s">
         <v>1160</v>
       </c>
-      <c r="D215" s="3" t="s">
+      <c r="D215" s="1" t="s">
         <v>1161</v>
       </c>
       <c r="E215" s="2" t="s">
@@ -13481,7 +13474,7 @@
       <c r="I215" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="J215" s="3" t="s">
+      <c r="J215" s="1" t="s">
         <v>1164</v>
       </c>
       <c r="K215" s="2" t="s">
@@ -13495,10 +13488,10 @@
       <c r="B216" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="C216" s="3" t="s">
+      <c r="C216" s="1" t="s">
         <v>1167</v>
       </c>
-      <c r="D216" s="3" t="s">
+      <c r="D216" s="1" t="s">
         <v>1168</v>
       </c>
       <c r="E216" s="2" t="s">
@@ -13516,7 +13509,7 @@
       <c r="I216" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="J216" s="3" t="s">
+      <c r="J216" s="1" t="s">
         <v>1169</v>
       </c>
       <c r="K216" s="2" t="s">
@@ -13530,10 +13523,10 @@
       <c r="B217" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="C217" s="3" t="s">
+      <c r="C217" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="D217" s="3" t="s">
+      <c r="D217" s="1" t="s">
         <v>1173</v>
       </c>
       <c r="E217" s="2" t="s">
@@ -13551,7 +13544,7 @@
       <c r="I217" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="J217" s="3" t="s">
+      <c r="J217" s="1" t="s">
         <v>1175</v>
       </c>
       <c r="K217" s="2" t="s">
@@ -13565,10 +13558,10 @@
       <c r="B218" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="C218" s="3" t="s">
+      <c r="C218" s="1" t="s">
         <v>1178</v>
       </c>
-      <c r="D218" s="3" t="s">
+      <c r="D218" s="1" t="s">
         <v>1179</v>
       </c>
       <c r="E218" s="2" t="s">
@@ -13586,7 +13579,7 @@
       <c r="I218" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="J218" s="3" t="s">
+      <c r="J218" s="1" t="s">
         <v>1181</v>
       </c>
       <c r="K218" s="2" t="s">
@@ -13600,10 +13593,10 @@
       <c r="B219" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="C219" s="3" t="s">
+      <c r="C219" s="1" t="s">
         <v>1184</v>
       </c>
-      <c r="D219" s="3" t="s">
+      <c r="D219" s="1" t="s">
         <v>1185</v>
       </c>
       <c r="E219" s="2" t="s">
@@ -13621,7 +13614,7 @@
       <c r="I219" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="J219" s="3" t="s">
+      <c r="J219" s="1" t="s">
         <v>1187</v>
       </c>
       <c r="K219" s="2" t="s">
@@ -13635,10 +13628,10 @@
       <c r="B220" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="1" t="s">
         <v>1190</v>
       </c>
-      <c r="D220" s="3" t="s">
+      <c r="D220" s="1" t="s">
         <v>1191</v>
       </c>
       <c r="E220" s="2" t="s">
@@ -13656,7 +13649,7 @@
       <c r="I220" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="J220" s="3" t="s">
+      <c r="J220" s="1" t="s">
         <v>1195</v>
       </c>
       <c r="K220" s="2" t="s">
@@ -13670,10 +13663,10 @@
       <c r="B221" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="C221" s="3" t="s">
+      <c r="C221" s="1" t="s">
         <v>1198</v>
       </c>
-      <c r="D221" s="3" t="s">
+      <c r="D221" s="1" t="s">
         <v>1199</v>
       </c>
       <c r="E221" s="2" t="s">
@@ -13691,7 +13684,7 @@
       <c r="I221" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="J221" s="3" t="s">
+      <c r="J221" s="1" t="s">
         <v>1200</v>
       </c>
       <c r="K221" s="2" t="s">
@@ -13705,10 +13698,10 @@
       <c r="B222" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="C222" s="3" t="s">
+      <c r="C222" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="D222" s="3" t="s">
+      <c r="D222" s="1" t="s">
         <v>1204</v>
       </c>
       <c r="E222" s="2" t="s">
@@ -13726,7 +13719,7 @@
       <c r="I222" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="J222" s="3" t="s">
+      <c r="J222" s="1" t="s">
         <v>1205</v>
       </c>
       <c r="K222" s="2" t="s">
@@ -13740,10 +13733,10 @@
       <c r="B223" s="2" t="s">
         <v>1207</v>
       </c>
-      <c r="C223" s="3" t="s">
+      <c r="C223" s="1" t="s">
         <v>1208</v>
       </c>
-      <c r="D223" s="3" t="s">
+      <c r="D223" s="1" t="s">
         <v>1209</v>
       </c>
       <c r="E223" s="2" t="s">
@@ -13761,7 +13754,7 @@
       <c r="I223" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="J223" s="3" t="s">
+      <c r="J223" s="1" t="s">
         <v>1211</v>
       </c>
       <c r="K223" s="2" t="s">
@@ -13775,10 +13768,10 @@
       <c r="B224" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="C224" s="3" t="s">
+      <c r="C224" s="1" t="s">
         <v>1214</v>
       </c>
-      <c r="D224" s="3" t="s">
+      <c r="D224" s="1" t="s">
         <v>1215</v>
       </c>
       <c r="E224" s="2" t="s">
@@ -13796,7 +13789,7 @@
       <c r="I224" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="J224" s="3" t="s">
+      <c r="J224" s="1" t="s">
         <v>1216</v>
       </c>
       <c r="K224" s="2" t="s">
@@ -13810,10 +13803,10 @@
       <c r="B225" s="2" t="s">
         <v>1218</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="1" t="s">
         <v>1219</v>
       </c>
-      <c r="D225" s="3" t="s">
+      <c r="D225" s="1" t="s">
         <v>1220</v>
       </c>
       <c r="E225" s="2" t="s">
@@ -13831,7 +13824,7 @@
       <c r="I225" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="J225" s="3" t="s">
+      <c r="J225" s="1" t="s">
         <v>1223</v>
       </c>
       <c r="K225" s="2" t="s">
@@ -13845,10 +13838,10 @@
       <c r="B226" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="1" t="s">
         <v>1226</v>
       </c>
-      <c r="D226" s="3" t="s">
+      <c r="D226" s="1" t="s">
         <v>1227</v>
       </c>
       <c r="E226" s="2" t="s">
@@ -13866,7 +13859,7 @@
       <c r="I226" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="J226" s="3" t="s">
+      <c r="J226" s="1" t="s">
         <v>1229</v>
       </c>
       <c r="K226" s="2" t="s">
@@ -13880,10 +13873,10 @@
       <c r="B227" s="2" t="s">
         <v>1231</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="1" t="s">
         <v>1232</v>
       </c>
-      <c r="D227" s="3" t="s">
+      <c r="D227" s="1" t="s">
         <v>1233</v>
       </c>
       <c r="E227" s="2" t="s">
@@ -13901,7 +13894,7 @@
       <c r="I227" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="J227" s="3" t="s">
+      <c r="J227" s="1" t="s">
         <v>1236</v>
       </c>
       <c r="K227" s="2" t="s">
@@ -13915,10 +13908,10 @@
       <c r="B228" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="C228" s="3" t="s">
+      <c r="C228" s="1" t="s">
         <v>1239</v>
       </c>
-      <c r="D228" s="3" t="s">
+      <c r="D228" s="1" t="s">
         <v>1240</v>
       </c>
       <c r="E228" s="2" t="s">
@@ -13936,7 +13929,7 @@
       <c r="I228" s="2" t="s">
         <v>1065</v>
       </c>
-      <c r="J228" s="3" t="s">
+      <c r="J228" s="1" t="s">
         <v>1242</v>
       </c>
       <c r="K228" s="2" t="s">
@@ -13950,10 +13943,10 @@
       <c r="B229" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="C229" s="3" t="s">
+      <c r="C229" s="1" t="s">
         <v>1245</v>
       </c>
-      <c r="D229" s="3" t="s">
+      <c r="D229" s="1" t="s">
         <v>1246</v>
       </c>
       <c r="E229" s="2" t="s">
@@ -13971,7 +13964,7 @@
       <c r="I229" s="2" t="s">
         <v>1193</v>
       </c>
-      <c r="J229" s="3" t="s">
+      <c r="J229" s="1" t="s">
         <v>1249</v>
       </c>
       <c r="K229" s="2" t="s">
@@ -13985,10 +13978,10 @@
       <c r="B230" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="C230" s="3" t="s">
+      <c r="C230" s="1" t="s">
         <v>1252</v>
       </c>
-      <c r="D230" s="3" t="s">
+      <c r="D230" s="1" t="s">
         <v>1253</v>
       </c>
       <c r="E230" s="2" t="s">
@@ -14006,7 +13999,7 @@
       <c r="I230" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="J230" s="3" t="s">
+      <c r="J230" s="1" t="s">
         <v>1254</v>
       </c>
       <c r="K230" s="2" t="s">
@@ -14020,10 +14013,10 @@
       <c r="B231" s="2" t="s">
         <v>1256</v>
       </c>
-      <c r="C231" s="3" t="s">
+      <c r="C231" s="1" t="s">
         <v>1257</v>
       </c>
-      <c r="D231" s="3" t="s">
+      <c r="D231" s="1" t="s">
         <v>1258</v>
       </c>
       <c r="E231" s="2" t="s">
@@ -14041,7 +14034,7 @@
       <c r="I231" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="J231" s="3" t="s">
+      <c r="J231" s="1" t="s">
         <v>1261</v>
       </c>
       <c r="K231" s="2" t="s">
@@ -14055,10 +14048,10 @@
       <c r="B232" s="2" t="s">
         <v>1263</v>
       </c>
-      <c r="C232" s="3" t="s">
+      <c r="C232" s="1" t="s">
         <v>1264</v>
       </c>
-      <c r="D232" s="3" t="s">
+      <c r="D232" s="1" t="s">
         <v>1265</v>
       </c>
       <c r="E232" s="2" t="s">
@@ -14076,7 +14069,7 @@
       <c r="I232" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="J232" s="3" t="s">
+      <c r="J232" s="1" t="s">
         <v>1268</v>
       </c>
       <c r="K232" s="2" t="s">
@@ -14090,10 +14083,10 @@
       <c r="B233" s="2" t="s">
         <v>1270</v>
       </c>
-      <c r="C233" s="3" t="s">
+      <c r="C233" s="1" t="s">
         <v>1271</v>
       </c>
-      <c r="D233" s="3" t="s">
+      <c r="D233" s="1" t="s">
         <v>1272</v>
       </c>
       <c r="E233" s="2" t="s">
@@ -14111,7 +14104,7 @@
       <c r="I233" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="J233" s="3" t="s">
+      <c r="J233" s="1" t="s">
         <v>1273</v>
       </c>
       <c r="K233" s="2" t="s">
@@ -14125,10 +14118,10 @@
       <c r="B234" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="C234" s="3" t="s">
+      <c r="C234" s="1" t="s">
         <v>1276</v>
       </c>
-      <c r="D234" s="3" t="s">
+      <c r="D234" s="1" t="s">
         <v>1277</v>
       </c>
       <c r="E234" s="2" t="s">
@@ -14146,7 +14139,7 @@
       <c r="I234" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="J234" s="3" t="s">
+      <c r="J234" s="1" t="s">
         <v>1278</v>
       </c>
       <c r="K234" s="2" t="s">
@@ -14160,10 +14153,10 @@
       <c r="B235" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="C235" s="3" t="s">
+      <c r="C235" s="1" t="s">
         <v>1281</v>
       </c>
-      <c r="D235" s="3" t="s">
+      <c r="D235" s="1" t="s">
         <v>1282</v>
       </c>
       <c r="E235" s="2" t="s">
@@ -14181,7 +14174,7 @@
       <c r="I235" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="J235" s="3" t="s">
+      <c r="J235" s="1" t="s">
         <v>1285</v>
       </c>
       <c r="K235" s="2" t="s">
@@ -14195,10 +14188,10 @@
       <c r="B236" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="C236" s="3" t="s">
+      <c r="C236" s="1" t="s">
         <v>1288</v>
       </c>
-      <c r="D236" s="3" t="s">
+      <c r="D236" s="1" t="s">
         <v>1289</v>
       </c>
       <c r="E236" s="2" t="s">
@@ -14216,7 +14209,7 @@
       <c r="I236" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="J236" s="3" t="s">
+      <c r="J236" s="1" t="s">
         <v>1291</v>
       </c>
       <c r="K236" s="2" t="s">
@@ -14230,10 +14223,10 @@
       <c r="B237" s="2" t="s">
         <v>1293</v>
       </c>
-      <c r="C237" s="3" t="s">
+      <c r="C237" s="1" t="s">
         <v>1294</v>
       </c>
-      <c r="D237" s="3" t="s">
+      <c r="D237" s="1" t="s">
         <v>1295</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -14251,7 +14244,7 @@
       <c r="I237" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="J237" s="3" t="s">
+      <c r="J237" s="1" t="s">
         <v>1297</v>
       </c>
       <c r="K237" s="2" t="s">
@@ -14265,10 +14258,10 @@
       <c r="B238" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="C238" s="3" t="s">
+      <c r="C238" s="1" t="s">
         <v>1300</v>
       </c>
-      <c r="D238" s="3" t="s">
+      <c r="D238" s="1" t="s">
         <v>1301</v>
       </c>
       <c r="E238" s="2" t="s">
@@ -14286,7 +14279,7 @@
       <c r="I238" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="J238" s="3" t="s">
+      <c r="J238" s="1" t="s">
         <v>1302</v>
       </c>
       <c r="K238" s="2" t="s">
@@ -14300,10 +14293,10 @@
       <c r="B239" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="C239" s="3" t="s">
+      <c r="C239" s="1" t="s">
         <v>1305</v>
       </c>
-      <c r="D239" s="3" t="s">
+      <c r="D239" s="1" t="s">
         <v>1306</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -14321,7 +14314,7 @@
       <c r="I239" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="J239" s="3" t="s">
+      <c r="J239" s="1" t="s">
         <v>1308</v>
       </c>
       <c r="K239" s="2" t="s">
@@ -14335,10 +14328,10 @@
       <c r="B240" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="C240" s="3" t="s">
+      <c r="C240" s="1" t="s">
         <v>1311</v>
       </c>
-      <c r="D240" s="3" t="s">
+      <c r="D240" s="1" t="s">
         <v>1312</v>
       </c>
       <c r="E240" s="2" t="s">
@@ -14356,7 +14349,7 @@
       <c r="I240" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="J240" s="3" t="s">
+      <c r="J240" s="1" t="s">
         <v>1313</v>
       </c>
       <c r="K240" s="2" t="s">
@@ -14370,10 +14363,10 @@
       <c r="B241" s="2" t="s">
         <v>1315</v>
       </c>
-      <c r="C241" s="3" t="s">
+      <c r="C241" s="1" t="s">
         <v>1316</v>
       </c>
-      <c r="D241" s="3" t="s">
+      <c r="D241" s="1" t="s">
         <v>1317</v>
       </c>
       <c r="E241" s="2" t="s">
@@ -14391,7 +14384,7 @@
       <c r="I241" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="J241" s="3" t="s">
+      <c r="J241" s="1" t="s">
         <v>1319</v>
       </c>
       <c r="K241" s="2" t="s">
@@ -14405,10 +14398,10 @@
       <c r="B242" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="C242" s="3" t="s">
+      <c r="C242" s="1" t="s">
         <v>1322</v>
       </c>
-      <c r="D242" s="3" t="s">
+      <c r="D242" s="1" t="s">
         <v>1323</v>
       </c>
       <c r="E242" s="2" t="s">
@@ -14426,7 +14419,7 @@
       <c r="I242" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="J242" s="3" t="s">
+      <c r="J242" s="1" t="s">
         <v>1324</v>
       </c>
       <c r="K242" s="2" t="s">
@@ -14440,10 +14433,10 @@
       <c r="B243" s="2" t="s">
         <v>1326</v>
       </c>
-      <c r="C243" s="3" t="s">
+      <c r="C243" s="1" t="s">
         <v>1327</v>
       </c>
-      <c r="D243" s="3" t="s">
+      <c r="D243" s="1" t="s">
         <v>1328</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -14461,7 +14454,7 @@
       <c r="I243" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="J243" s="3" t="s">
+      <c r="J243" s="1" t="s">
         <v>1330</v>
       </c>
       <c r="K243" s="2" t="s">
@@ -14475,10 +14468,10 @@
       <c r="B244" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="C244" s="3" t="s">
+      <c r="C244" s="1" t="s">
         <v>1333</v>
       </c>
-      <c r="D244" s="3" t="s">
+      <c r="D244" s="1" t="s">
         <v>1334</v>
       </c>
       <c r="E244" s="2" t="s">
@@ -14496,7 +14489,7 @@
       <c r="I244" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="J244" s="3" t="s">
+      <c r="J244" s="1" t="s">
         <v>1335</v>
       </c>
       <c r="K244" s="2" t="s">
@@ -14510,10 +14503,10 @@
       <c r="B245" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="C245" s="3" t="s">
+      <c r="C245" s="1" t="s">
         <v>1338</v>
       </c>
-      <c r="D245" s="3" t="s">
+      <c r="D245" s="1" t="s">
         <v>1339</v>
       </c>
       <c r="E245" s="2" t="s">
@@ -14531,7 +14524,7 @@
       <c r="I245" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="J245" s="3" t="s">
+      <c r="J245" s="1" t="s">
         <v>1341</v>
       </c>
       <c r="K245" s="2" t="s">
@@ -14545,10 +14538,10 @@
       <c r="B246" s="2" t="s">
         <v>1343</v>
       </c>
-      <c r="C246" s="3" t="s">
+      <c r="C246" s="1" t="s">
         <v>1344</v>
       </c>
-      <c r="D246" s="3" t="s">
+      <c r="D246" s="1" t="s">
         <v>1345</v>
       </c>
       <c r="E246" s="2" t="s">
@@ -14566,7 +14559,7 @@
       <c r="I246" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="J246" s="3" t="s">
+      <c r="J246" s="1" t="s">
         <v>1348</v>
       </c>
       <c r="K246" s="2" t="s">
@@ -14580,10 +14573,10 @@
       <c r="B247" s="2" t="s">
         <v>1350</v>
       </c>
-      <c r="C247" s="3" t="s">
+      <c r="C247" s="1" t="s">
         <v>1351</v>
       </c>
-      <c r="D247" s="3" t="s">
+      <c r="D247" s="1" t="s">
         <v>1352</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -14601,7 +14594,7 @@
       <c r="I247" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="J247" s="3" t="s">
+      <c r="J247" s="1" t="s">
         <v>1354</v>
       </c>
       <c r="K247" s="2" t="s">
@@ -14615,10 +14608,10 @@
       <c r="B248" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="C248" s="3" t="s">
+      <c r="C248" s="1" t="s">
         <v>1357</v>
       </c>
-      <c r="D248" s="3" t="s">
+      <c r="D248" s="1" t="s">
         <v>1358</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -14636,7 +14629,7 @@
       <c r="I248" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="J248" s="3" t="s">
+      <c r="J248" s="1" t="s">
         <v>1361</v>
       </c>
       <c r="K248" s="2" t="s">
@@ -14650,10 +14643,10 @@
       <c r="B249" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="C249" s="3" t="s">
+      <c r="C249" s="1" t="s">
         <v>1364</v>
       </c>
-      <c r="D249" s="3" t="s">
+      <c r="D249" s="1" t="s">
         <v>1365</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -14671,7 +14664,7 @@
       <c r="I249" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="J249" s="3" t="s">
+      <c r="J249" s="1" t="s">
         <v>1367</v>
       </c>
       <c r="K249" s="2" t="s">
@@ -14685,10 +14678,10 @@
       <c r="B250" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="C250" s="3" t="s">
+      <c r="C250" s="1" t="s">
         <v>1370</v>
       </c>
-      <c r="D250" s="3" t="s">
+      <c r="D250" s="1" t="s">
         <v>1371</v>
       </c>
       <c r="E250" s="2" t="s">
@@ -14706,7 +14699,7 @@
       <c r="I250" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="J250" s="3" t="s">
+      <c r="J250" s="1" t="s">
         <v>1373</v>
       </c>
       <c r="K250" s="2" t="s">
@@ -14720,10 +14713,10 @@
       <c r="B251" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="C251" s="3" t="s">
+      <c r="C251" s="1" t="s">
         <v>1376</v>
       </c>
-      <c r="D251" s="3" t="s">
+      <c r="D251" s="1" t="s">
         <v>1377</v>
       </c>
       <c r="E251" s="2" t="s">
@@ -14741,7 +14734,7 @@
       <c r="I251" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="J251" s="3" t="s">
+      <c r="J251" s="1" t="s">
         <v>1379</v>
       </c>
       <c r="K251" s="2" t="s">
@@ -14755,10 +14748,10 @@
       <c r="B252" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="C252" s="3" t="s">
+      <c r="C252" s="1" t="s">
         <v>1382</v>
       </c>
-      <c r="D252" s="3" t="s">
+      <c r="D252" s="1" t="s">
         <v>1383</v>
       </c>
       <c r="E252" s="2" t="s">
@@ -14776,7 +14769,7 @@
       <c r="I252" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="J252" s="3" t="s">
+      <c r="J252" s="1" t="s">
         <v>1386</v>
       </c>
       <c r="K252" s="2" t="s">
@@ -14790,10 +14783,10 @@
       <c r="B253" s="2" t="s">
         <v>1388</v>
       </c>
-      <c r="C253" s="3" t="s">
+      <c r="C253" s="1" t="s">
         <v>1389</v>
       </c>
-      <c r="D253" s="3" t="s">
+      <c r="D253" s="1" t="s">
         <v>1390</v>
       </c>
       <c r="E253" s="2" t="s">
@@ -14811,7 +14804,7 @@
       <c r="I253" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="J253" s="3" t="s">
+      <c r="J253" s="1" t="s">
         <v>1392</v>
       </c>
       <c r="K253" s="2" t="s">
@@ -14825,10 +14818,10 @@
       <c r="B254" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="C254" s="3" t="s">
+      <c r="C254" s="1" t="s">
         <v>1395</v>
       </c>
-      <c r="D254" s="3" t="s">
+      <c r="D254" s="1" t="s">
         <v>1396</v>
       </c>
       <c r="E254" s="2" t="s">
@@ -14846,7 +14839,7 @@
       <c r="I254" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="J254" s="3" t="s">
+      <c r="J254" s="1" t="s">
         <v>1398</v>
       </c>
       <c r="K254" s="2" t="s">
@@ -14860,10 +14853,10 @@
       <c r="B255" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="C255" s="3" t="s">
+      <c r="C255" s="1" t="s">
         <v>1401</v>
       </c>
-      <c r="D255" s="3" t="s">
+      <c r="D255" s="1" t="s">
         <v>1402</v>
       </c>
       <c r="E255" s="2" t="s">
@@ -14881,7 +14874,7 @@
       <c r="I255" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="J255" s="3" t="s">
+      <c r="J255" s="1" t="s">
         <v>1405</v>
       </c>
       <c r="K255" s="2" t="s">
@@ -14895,10 +14888,10 @@
       <c r="B256" s="2" t="s">
         <v>1407</v>
       </c>
-      <c r="C256" s="3" t="s">
+      <c r="C256" s="1" t="s">
         <v>1408</v>
       </c>
-      <c r="D256" s="3" t="s">
+      <c r="D256" s="1" t="s">
         <v>1409</v>
       </c>
       <c r="E256" s="2" t="s">
@@ -14916,7 +14909,7 @@
       <c r="I256" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="J256" s="3" t="s">
+      <c r="J256" s="1" t="s">
         <v>1411</v>
       </c>
       <c r="K256" s="2" t="s">
@@ -14930,10 +14923,10 @@
       <c r="B257" s="2" t="s">
         <v>1413</v>
       </c>
-      <c r="C257" s="3" t="s">
+      <c r="C257" s="1" t="s">
         <v>1414</v>
       </c>
-      <c r="D257" s="3" t="s">
+      <c r="D257" s="1" t="s">
         <v>1415</v>
       </c>
       <c r="E257" s="2" t="s">
@@ -14951,7 +14944,7 @@
       <c r="I257" s="2" t="s">
         <v>1418</v>
       </c>
-      <c r="J257" s="3" t="s">
+      <c r="J257" s="1" t="s">
         <v>1419</v>
       </c>
       <c r="K257" s="2" t="s">
@@ -14965,10 +14958,10 @@
       <c r="B258" s="2" t="s">
         <v>1421</v>
       </c>
-      <c r="C258" s="3" t="s">
+      <c r="C258" s="1" t="s">
         <v>1422</v>
       </c>
-      <c r="D258" s="3" t="s">
+      <c r="D258" s="1" t="s">
         <v>1423</v>
       </c>
       <c r="E258" s="2" t="s">
@@ -14986,7 +14979,7 @@
       <c r="I258" s="2" t="s">
         <v>1425</v>
       </c>
-      <c r="J258" s="3" t="s">
+      <c r="J258" s="1" t="s">
         <v>1426</v>
       </c>
       <c r="K258" s="2" t="s">
@@ -15000,10 +14993,10 @@
       <c r="B259" s="2" t="s">
         <v>1428</v>
       </c>
-      <c r="C259" s="3" t="s">
+      <c r="C259" s="1" t="s">
         <v>1429</v>
       </c>
-      <c r="D259" s="3" t="s">
+      <c r="D259" s="1" t="s">
         <v>1430</v>
       </c>
       <c r="E259" s="2" t="s">
@@ -15021,7 +15014,7 @@
       <c r="I259" s="2" t="s">
         <v>1432</v>
       </c>
-      <c r="J259" s="3" t="s">
+      <c r="J259" s="1" t="s">
         <v>1433</v>
       </c>
       <c r="K259" s="2" t="s">
@@ -15035,10 +15028,10 @@
       <c r="B260" s="2" t="s">
         <v>1435</v>
       </c>
-      <c r="C260" s="3" t="s">
+      <c r="C260" s="1" t="s">
         <v>1436</v>
       </c>
-      <c r="D260" s="3" t="s">
+      <c r="D260" s="1" t="s">
         <v>1437</v>
       </c>
       <c r="E260" s="2" t="s">
@@ -15056,7 +15049,7 @@
       <c r="I260" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="J260" s="3" t="s">
+      <c r="J260" s="1" t="s">
         <v>1440</v>
       </c>
       <c r="K260" s="2" t="s">
@@ -15070,10 +15063,10 @@
       <c r="B261" s="2" t="s">
         <v>1442</v>
       </c>
-      <c r="C261" s="3" t="s">
+      <c r="C261" s="1" t="s">
         <v>1443</v>
       </c>
-      <c r="D261" s="3" t="s">
+      <c r="D261" s="1" t="s">
         <v>1444</v>
       </c>
       <c r="E261" s="2" t="s">
@@ -15091,7 +15084,7 @@
       <c r="I261" s="2" t="s">
         <v>958</v>
       </c>
-      <c r="J261" s="3" t="s">
+      <c r="J261" s="1" t="s">
         <v>1445</v>
       </c>
       <c r="K261" s="2" t="s">
@@ -15105,10 +15098,10 @@
       <c r="B262" s="2" t="s">
         <v>1447</v>
       </c>
-      <c r="C262" s="3" t="s">
+      <c r="C262" s="1" t="s">
         <v>1448</v>
       </c>
-      <c r="D262" s="3" t="s">
+      <c r="D262" s="1" t="s">
         <v>1449</v>
       </c>
       <c r="E262" s="2" t="s">
@@ -15126,7 +15119,7 @@
       <c r="I262" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="J262" s="3" t="s">
+      <c r="J262" s="1" t="s">
         <v>1453</v>
       </c>
       <c r="K262" s="2" t="s">
@@ -15140,10 +15133,10 @@
       <c r="B263" s="2" t="s">
         <v>1455</v>
       </c>
-      <c r="C263" s="3" t="s">
+      <c r="C263" s="1" t="s">
         <v>1456</v>
       </c>
-      <c r="D263" s="3" t="s">
+      <c r="D263" s="1" t="s">
         <v>1457</v>
       </c>
       <c r="E263" s="2" t="s">
@@ -15161,7 +15154,7 @@
       <c r="I263" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="J263" s="3" t="s">
+      <c r="J263" s="1" t="s">
         <v>1458</v>
       </c>
       <c r="K263" s="2" t="s">
@@ -15175,10 +15168,10 @@
       <c r="B264" s="2" t="s">
         <v>1460</v>
       </c>
-      <c r="C264" s="3" t="s">
+      <c r="C264" s="1" t="s">
         <v>1461</v>
       </c>
-      <c r="D264" s="3" t="s">
+      <c r="D264" s="1" t="s">
         <v>1462</v>
       </c>
       <c r="E264" s="2" t="s">
@@ -15196,7 +15189,7 @@
       <c r="I264" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="J264" s="3" t="s">
+      <c r="J264" s="1" t="s">
         <v>1465</v>
       </c>
       <c r="K264" s="2" t="s">
@@ -15210,10 +15203,10 @@
       <c r="B265" s="2" t="s">
         <v>1467</v>
       </c>
-      <c r="C265" s="3" t="s">
+      <c r="C265" s="1" t="s">
         <v>1468</v>
       </c>
-      <c r="D265" s="3" t="s">
+      <c r="D265" s="1" t="s">
         <v>1469</v>
       </c>
       <c r="E265" s="2" t="s">
@@ -15231,7 +15224,7 @@
       <c r="I265" s="2" t="s">
         <v>1464</v>
       </c>
-      <c r="J265" s="3" t="s">
+      <c r="J265" s="1" t="s">
         <v>1471</v>
       </c>
       <c r="K265" s="2" t="s">
@@ -15245,10 +15238,10 @@
       <c r="B266" s="2" t="s">
         <v>1473</v>
       </c>
-      <c r="C266" s="3" t="s">
+      <c r="C266" s="1" t="s">
         <v>1474</v>
       </c>
-      <c r="D266" s="3" t="s">
+      <c r="D266" s="1" t="s">
         <v>1475</v>
       </c>
       <c r="E266" s="2" t="s">
@@ -15266,7 +15259,7 @@
       <c r="I266" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="J266" s="3" t="s">
+      <c r="J266" s="1" t="s">
         <v>1477</v>
       </c>
       <c r="K266" s="2" t="s">
@@ -15280,10 +15273,10 @@
       <c r="B267" s="2" t="s">
         <v>1479</v>
       </c>
-      <c r="C267" s="3" t="s">
+      <c r="C267" s="1" t="s">
         <v>1480</v>
       </c>
-      <c r="D267" s="3" t="s">
+      <c r="D267" s="1" t="s">
         <v>1481</v>
       </c>
       <c r="E267" s="2" t="s">
@@ -15301,7 +15294,7 @@
       <c r="I267" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="J267" s="3" t="s">
+      <c r="J267" s="1" t="s">
         <v>1482</v>
       </c>
       <c r="K267" s="2" t="s">
@@ -15315,10 +15308,10 @@
       <c r="B268" s="2" t="s">
         <v>1484</v>
       </c>
-      <c r="C268" s="3" t="s">
+      <c r="C268" s="1" t="s">
         <v>1485</v>
       </c>
-      <c r="D268" s="3" t="s">
+      <c r="D268" s="1" t="s">
         <v>1486</v>
       </c>
       <c r="E268" s="2" t="s">
@@ -15336,7 +15329,7 @@
       <c r="I268" s="2" t="s">
         <v>1431</v>
       </c>
-      <c r="J268" s="3" t="s">
+      <c r="J268" s="1" t="s">
         <v>1487</v>
       </c>
       <c r="K268" s="2" t="s">
@@ -15350,10 +15343,10 @@
       <c r="B269" s="2" t="s">
         <v>1489</v>
       </c>
-      <c r="C269" s="3" t="s">
+      <c r="C269" s="1" t="s">
         <v>1490</v>
       </c>
-      <c r="D269" s="3" t="s">
+      <c r="D269" s="1" t="s">
         <v>1491</v>
       </c>
       <c r="E269" s="2" t="s">
@@ -15371,7 +15364,7 @@
       <c r="I269" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="J269" s="3" t="s">
+      <c r="J269" s="1" t="s">
         <v>1493</v>
       </c>
       <c r="K269" s="2" t="s">
@@ -15385,10 +15378,10 @@
       <c r="B270" s="2" t="s">
         <v>1495</v>
       </c>
-      <c r="C270" s="3" t="s">
+      <c r="C270" s="1" t="s">
         <v>1496</v>
       </c>
-      <c r="D270" s="3" t="s">
+      <c r="D270" s="1" t="s">
         <v>1497</v>
       </c>
       <c r="E270" s="2" t="s">
@@ -15406,7 +15399,7 @@
       <c r="I270" s="2" t="s">
         <v>1451</v>
       </c>
-      <c r="J270" s="3" t="s">
+      <c r="J270" s="1" t="s">
         <v>1498</v>
       </c>
       <c r="K270" s="2" t="s">
@@ -15420,10 +15413,10 @@
       <c r="B271" s="2" t="s">
         <v>1500</v>
       </c>
-      <c r="C271" s="3" t="s">
+      <c r="C271" s="1" t="s">
         <v>1501</v>
       </c>
-      <c r="D271" s="3" t="s">
+      <c r="D271" s="1" t="s">
         <v>1502</v>
       </c>
       <c r="E271" s="2" t="s">
@@ -15441,7 +15434,7 @@
       <c r="I271" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="J271" s="3" t="s">
+      <c r="J271" s="1" t="s">
         <v>1503</v>
       </c>
       <c r="K271" s="2" t="s">
@@ -15455,10 +15448,10 @@
       <c r="B272" s="2" t="s">
         <v>1505</v>
       </c>
-      <c r="C272" s="3" t="s">
+      <c r="C272" s="1" t="s">
         <v>1506</v>
       </c>
-      <c r="D272" s="3" t="s">
+      <c r="D272" s="1" t="s">
         <v>1507</v>
       </c>
       <c r="E272" s="2" t="s">
@@ -15476,7 +15469,7 @@
       <c r="I272" s="2" t="s">
         <v>1417</v>
       </c>
-      <c r="J272" s="3" t="s">
+      <c r="J272" s="1" t="s">
         <v>1508</v>
       </c>
       <c r="K272" s="2" t="s">
@@ -15490,10 +15483,10 @@
       <c r="B273" s="2" t="s">
         <v>1510</v>
       </c>
-      <c r="C273" s="3" t="s">
+      <c r="C273" s="1" t="s">
         <v>1511</v>
       </c>
-      <c r="D273" s="3" t="s">
+      <c r="D273" s="1" t="s">
         <v>1512</v>
       </c>
       <c r="E273" s="2" t="s">
@@ -15511,7 +15504,7 @@
       <c r="I273" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="J273" s="3" t="s">
+      <c r="J273" s="1" t="s">
         <v>1513</v>
       </c>
       <c r="K273" s="2" t="s">
@@ -15525,10 +15518,10 @@
       <c r="B274" s="2" t="s">
         <v>1515</v>
       </c>
-      <c r="C274" s="3" t="s">
+      <c r="C274" s="1" t="s">
         <v>1516</v>
       </c>
-      <c r="D274" s="3" t="s">
+      <c r="D274" s="1" t="s">
         <v>1517</v>
       </c>
       <c r="E274" s="2" t="s">
@@ -15546,7 +15539,7 @@
       <c r="I274" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="J274" s="3" t="s">
+      <c r="J274" s="1" t="s">
         <v>1519</v>
       </c>
       <c r="K274" s="2" t="s">
@@ -15560,10 +15553,10 @@
       <c r="B275" s="2" t="s">
         <v>1521</v>
       </c>
-      <c r="C275" s="3" t="s">
+      <c r="C275" s="1" t="s">
         <v>1522</v>
       </c>
-      <c r="D275" s="3" t="s">
+      <c r="D275" s="1" t="s">
         <v>1523</v>
       </c>
       <c r="E275" s="2" t="s">
@@ -15581,7 +15574,7 @@
       <c r="I275" s="2" t="s">
         <v>1424</v>
       </c>
-      <c r="J275" s="3" t="s">
+      <c r="J275" s="1" t="s">
         <v>1525</v>
       </c>
       <c r="K275" s="2" t="s">
@@ -15595,10 +15588,10 @@
       <c r="B276" s="2" t="s">
         <v>1527</v>
       </c>
-      <c r="C276" s="3" t="s">
+      <c r="C276" s="1" t="s">
         <v>1528</v>
       </c>
-      <c r="D276" s="3" t="s">
+      <c r="D276" s="1" t="s">
         <v>1529</v>
       </c>
       <c r="E276" s="2" t="s">
@@ -15616,7 +15609,7 @@
       <c r="I276" s="2" t="s">
         <v>1410</v>
       </c>
-      <c r="J276" s="3" t="s">
+      <c r="J276" s="1" t="s">
         <v>1530</v>
       </c>
       <c r="K276" s="2" t="s">
@@ -15630,10 +15623,10 @@
       <c r="B277" s="2" t="s">
         <v>1532</v>
       </c>
-      <c r="C277" s="3" t="s">
+      <c r="C277" s="1" t="s">
         <v>1533</v>
       </c>
-      <c r="D277" s="3" t="s">
+      <c r="D277" s="1" t="s">
         <v>1534</v>
       </c>
       <c r="E277" s="2" t="s">
@@ -15651,7 +15644,7 @@
       <c r="I277" s="2" t="s">
         <v>1450</v>
       </c>
-      <c r="J277" s="3" t="s">
+      <c r="J277" s="1" t="s">
         <v>1536</v>
       </c>
       <c r="K277" s="2" t="s">
@@ -15665,10 +15658,10 @@
       <c r="B278" s="2" t="s">
         <v>1538</v>
       </c>
-      <c r="C278" s="3" t="s">
+      <c r="C278" s="1" t="s">
         <v>1539</v>
       </c>
-      <c r="D278" s="3" t="s">
+      <c r="D278" s="1" t="s">
         <v>1540</v>
       </c>
       <c r="E278" s="2" t="s">
@@ -15686,7 +15679,7 @@
       <c r="I278" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="J278" s="3" t="s">
+      <c r="J278" s="1" t="s">
         <v>1542</v>
       </c>
       <c r="K278" s="2" t="s">
@@ -15700,10 +15693,10 @@
       <c r="B279" s="2" t="s">
         <v>1544</v>
       </c>
-      <c r="C279" s="3" t="s">
+      <c r="C279" s="1" t="s">
         <v>1545</v>
       </c>
-      <c r="D279" s="3" t="s">
+      <c r="D279" s="1" t="s">
         <v>1546</v>
       </c>
       <c r="E279" s="2" t="s">
@@ -15721,7 +15714,7 @@
       <c r="I279" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="J279" s="3" t="s">
+      <c r="J279" s="1" t="s">
         <v>1547</v>
       </c>
       <c r="K279" s="2" t="s">
@@ -15735,10 +15728,10 @@
       <c r="B280" s="2" t="s">
         <v>1549</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="C280" s="1" t="s">
         <v>1550</v>
       </c>
-      <c r="D280" s="3" t="s">
+      <c r="D280" s="1" t="s">
         <v>1551</v>
       </c>
       <c r="E280" s="2" t="s">
@@ -15756,7 +15749,7 @@
       <c r="I280" s="2" t="s">
         <v>1416</v>
       </c>
-      <c r="J280" s="3" t="s">
+      <c r="J280" s="1" t="s">
         <v>1553</v>
       </c>
       <c r="K280" s="2" t="s">
@@ -15770,10 +15763,10 @@
       <c r="B281" s="2" t="s">
         <v>1555</v>
       </c>
-      <c r="C281" s="3" t="s">
+      <c r="C281" s="1" t="s">
         <v>1556</v>
       </c>
-      <c r="D281" s="3" t="s">
+      <c r="D281" s="1" t="s">
         <v>1557</v>
       </c>
       <c r="E281" s="2" t="s">
@@ -15791,7 +15784,7 @@
       <c r="I281" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J281" s="3" t="s">
+      <c r="J281" s="1" t="s">
         <v>1559</v>
       </c>
       <c r="K281" s="2" t="s">
@@ -15805,10 +15798,10 @@
       <c r="B282" s="2" t="s">
         <v>1561</v>
       </c>
-      <c r="C282" s="3" t="s">
+      <c r="C282" s="1" t="s">
         <v>1562</v>
       </c>
-      <c r="D282" s="3" t="s">
+      <c r="D282" s="1" t="s">
         <v>1563</v>
       </c>
       <c r="E282" s="2" t="s">
@@ -15826,7 +15819,7 @@
       <c r="I282" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J282" s="3" t="s">
+      <c r="J282" s="1" t="s">
         <v>1564</v>
       </c>
       <c r="K282" s="2" t="s">
@@ -15840,10 +15833,10 @@
       <c r="B283" s="2" t="s">
         <v>1566</v>
       </c>
-      <c r="C283" s="3" t="s">
+      <c r="C283" s="1" t="s">
         <v>1567</v>
       </c>
-      <c r="D283" s="3" t="s">
+      <c r="D283" s="1" t="s">
         <v>1568</v>
       </c>
       <c r="E283" s="2" t="s">
@@ -15861,7 +15854,7 @@
       <c r="I283" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J283" s="3" t="s">
+      <c r="J283" s="1" t="s">
         <v>1569</v>
       </c>
       <c r="K283" s="2" t="s">
@@ -15875,10 +15868,10 @@
       <c r="B284" s="2" t="s">
         <v>1571</v>
       </c>
-      <c r="C284" s="3" t="s">
+      <c r="C284" s="1" t="s">
         <v>1572</v>
       </c>
-      <c r="D284" s="3" t="s">
+      <c r="D284" s="1" t="s">
         <v>1573</v>
       </c>
       <c r="E284" s="2" t="s">
@@ -15896,7 +15889,7 @@
       <c r="I284" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J284" s="3" t="s">
+      <c r="J284" s="1" t="s">
         <v>1574</v>
       </c>
       <c r="K284" s="2" t="s">
@@ -15910,10 +15903,10 @@
       <c r="B285" s="2" t="s">
         <v>1576</v>
       </c>
-      <c r="C285" s="3" t="s">
+      <c r="C285" s="1" t="s">
         <v>1577</v>
       </c>
-      <c r="D285" s="3" t="s">
+      <c r="D285" s="1" t="s">
         <v>1578</v>
       </c>
       <c r="E285" s="2" t="s">
@@ -15931,7 +15924,7 @@
       <c r="I285" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J285" s="3" t="s">
+      <c r="J285" s="1" t="s">
         <v>1579</v>
       </c>
       <c r="K285" s="2" t="s">
@@ -15945,10 +15938,10 @@
       <c r="B286" s="2" t="s">
         <v>1581</v>
       </c>
-      <c r="C286" s="3" t="s">
+      <c r="C286" s="1" t="s">
         <v>1582</v>
       </c>
-      <c r="D286" s="3" t="s">
+      <c r="D286" s="1" t="s">
         <v>1583</v>
       </c>
       <c r="E286" s="2" t="s">
@@ -15966,7 +15959,7 @@
       <c r="I286" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J286" s="3" t="s">
+      <c r="J286" s="1" t="s">
         <v>1584</v>
       </c>
       <c r="K286" s="2" t="s">
@@ -15980,10 +15973,10 @@
       <c r="B287" s="2" t="s">
         <v>1586</v>
       </c>
-      <c r="C287" s="3" t="s">
+      <c r="C287" s="1" t="s">
         <v>1587</v>
       </c>
-      <c r="D287" s="3" t="s">
+      <c r="D287" s="1" t="s">
         <v>1588</v>
       </c>
       <c r="E287" s="2" t="s">
@@ -16001,7 +15994,7 @@
       <c r="I287" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J287" s="3"/>
+      <c r="J287" s="1"/>
       <c r="K287" s="2" t="s">
         <v>21</v>
       </c>
@@ -16013,10 +16006,10 @@
       <c r="B288" s="2" t="s">
         <v>1590</v>
       </c>
-      <c r="C288" s="3" t="s">
+      <c r="C288" s="1" t="s">
         <v>1591</v>
       </c>
-      <c r="D288" s="3" t="s">
+      <c r="D288" s="1" t="s">
         <v>1592</v>
       </c>
       <c r="E288" s="2" t="s">
@@ -16034,7 +16027,7 @@
       <c r="I288" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J288" s="3"/>
+      <c r="J288" s="1"/>
       <c r="K288" s="2" t="s">
         <v>21</v>
       </c>
@@ -16046,10 +16039,10 @@
       <c r="B289" s="2" t="s">
         <v>1593</v>
       </c>
-      <c r="C289" s="3" t="s">
+      <c r="C289" s="1" t="s">
         <v>1594</v>
       </c>
-      <c r="D289" s="3" t="s">
+      <c r="D289" s="1" t="s">
         <v>1595</v>
       </c>
       <c r="E289" s="2" t="s">
@@ -16067,7 +16060,7 @@
       <c r="I289" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J289" s="3"/>
+      <c r="J289" s="1"/>
       <c r="K289" s="2" t="s">
         <v>21</v>
       </c>
@@ -16079,10 +16072,10 @@
       <c r="B290" s="2" t="s">
         <v>1596</v>
       </c>
-      <c r="C290" s="3" t="s">
+      <c r="C290" s="1" t="s">
         <v>1597</v>
       </c>
-      <c r="D290" s="3" t="s">
+      <c r="D290" s="1" t="s">
         <v>1598</v>
       </c>
       <c r="E290" s="2" t="s">
@@ -16100,7 +16093,7 @@
       <c r="I290" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J290" s="3"/>
+      <c r="J290" s="1"/>
       <c r="K290" s="2" t="s">
         <v>21</v>
       </c>
@@ -16112,10 +16105,10 @@
       <c r="B291" s="2" t="s">
         <v>1599</v>
       </c>
-      <c r="C291" s="3" t="s">
+      <c r="C291" s="1" t="s">
         <v>1600</v>
       </c>
-      <c r="D291" s="3" t="s">
+      <c r="D291" s="1" t="s">
         <v>1601</v>
       </c>
       <c r="E291" s="2" t="s">
@@ -16133,7 +16126,7 @@
       <c r="I291" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J291" s="3"/>
+      <c r="J291" s="1"/>
       <c r="K291" s="2" t="s">
         <v>21</v>
       </c>
@@ -16145,10 +16138,10 @@
       <c r="B292" s="2" t="s">
         <v>1602</v>
       </c>
-      <c r="C292" s="3" t="s">
+      <c r="C292" s="1" t="s">
         <v>1603</v>
       </c>
-      <c r="D292" s="3" t="s">
+      <c r="D292" s="1" t="s">
         <v>1604</v>
       </c>
       <c r="E292" s="2" t="s">
@@ -16166,7 +16159,7 @@
       <c r="I292" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J292" s="3"/>
+      <c r="J292" s="1"/>
       <c r="K292" s="2" t="s">
         <v>21</v>
       </c>
@@ -16178,10 +16171,10 @@
       <c r="B293" s="2" t="s">
         <v>1605</v>
       </c>
-      <c r="C293" s="3" t="s">
+      <c r="C293" s="1" t="s">
         <v>1606</v>
       </c>
-      <c r="D293" s="3" t="s">
+      <c r="D293" s="1" t="s">
         <v>1607</v>
       </c>
       <c r="E293" s="2" t="s">
@@ -16199,7 +16192,7 @@
       <c r="I293" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J293" s="3"/>
+      <c r="J293" s="1"/>
       <c r="K293" s="2" t="s">
         <v>21</v>
       </c>
@@ -16211,10 +16204,10 @@
       <c r="B294" s="2" t="s">
         <v>1608</v>
       </c>
-      <c r="C294" s="3" t="s">
+      <c r="C294" s="1" t="s">
         <v>1609</v>
       </c>
-      <c r="D294" s="3" t="s">
+      <c r="D294" s="1" t="s">
         <v>1610</v>
       </c>
       <c r="E294" s="2" t="s">
@@ -16232,7 +16225,7 @@
       <c r="I294" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J294" s="3"/>
+      <c r="J294" s="1"/>
       <c r="K294" s="2" t="s">
         <v>21</v>
       </c>
@@ -16244,10 +16237,10 @@
       <c r="B295" s="2" t="s">
         <v>1611</v>
       </c>
-      <c r="C295" s="3" t="s">
+      <c r="C295" s="1" t="s">
         <v>1612</v>
       </c>
-      <c r="D295" s="3" t="s">
+      <c r="D295" s="1" t="s">
         <v>1613</v>
       </c>
       <c r="E295" s="2" t="s">
@@ -16265,7 +16258,7 @@
       <c r="I295" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J295" s="3"/>
+      <c r="J295" s="1"/>
       <c r="K295" s="2" t="s">
         <v>21</v>
       </c>
@@ -16277,10 +16270,10 @@
       <c r="B296" s="2" t="s">
         <v>1614</v>
       </c>
-      <c r="C296" s="3" t="s">
+      <c r="C296" s="1" t="s">
         <v>1615</v>
       </c>
-      <c r="D296" s="3" t="s">
+      <c r="D296" s="1" t="s">
         <v>1616</v>
       </c>
       <c r="E296" s="2" t="s">
@@ -16298,7 +16291,7 @@
       <c r="I296" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J296" s="3"/>
+      <c r="J296" s="1"/>
       <c r="K296" s="2" t="s">
         <v>21</v>
       </c>
@@ -16310,10 +16303,10 @@
       <c r="B297" s="2" t="s">
         <v>1617</v>
       </c>
-      <c r="C297" s="3" t="s">
+      <c r="C297" s="1" t="s">
         <v>1618</v>
       </c>
-      <c r="D297" s="3" t="s">
+      <c r="D297" s="1" t="s">
         <v>1619</v>
       </c>
       <c r="E297" s="2" t="s">
@@ -16331,7 +16324,7 @@
       <c r="I297" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J297" s="3"/>
+      <c r="J297" s="1"/>
       <c r="K297" s="2" t="s">
         <v>21</v>
       </c>
@@ -16343,10 +16336,10 @@
       <c r="B298" s="2" t="s">
         <v>1620</v>
       </c>
-      <c r="C298" s="3" t="s">
+      <c r="C298" s="1" t="s">
         <v>1621</v>
       </c>
-      <c r="D298" s="3" t="s">
+      <c r="D298" s="1" t="s">
         <v>1622</v>
       </c>
       <c r="E298" s="2" t="s">
@@ -16364,7 +16357,7 @@
       <c r="I298" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J298" s="3"/>
+      <c r="J298" s="1"/>
       <c r="K298" s="2" t="s">
         <v>21</v>
       </c>
@@ -16376,10 +16369,10 @@
       <c r="B299" s="2" t="s">
         <v>1623</v>
       </c>
-      <c r="C299" s="3" t="s">
+      <c r="C299" s="1" t="s">
         <v>1624</v>
       </c>
-      <c r="D299" s="3" t="s">
+      <c r="D299" s="1" t="s">
         <v>1625</v>
       </c>
       <c r="E299" s="2" t="s">
@@ -16397,7 +16390,7 @@
       <c r="I299" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J299" s="3"/>
+      <c r="J299" s="1"/>
       <c r="K299" s="2" t="s">
         <v>21</v>
       </c>
@@ -16409,10 +16402,10 @@
       <c r="B300" s="2" t="s">
         <v>1626</v>
       </c>
-      <c r="C300" s="3" t="s">
+      <c r="C300" s="1" t="s">
         <v>1627</v>
       </c>
-      <c r="D300" s="3" t="s">
+      <c r="D300" s="1" t="s">
         <v>1628</v>
       </c>
       <c r="E300" s="2" t="s">
@@ -16430,7 +16423,7 @@
       <c r="I300" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J300" s="3"/>
+      <c r="J300" s="1"/>
       <c r="K300" s="2" t="s">
         <v>21</v>
       </c>
@@ -16442,10 +16435,10 @@
       <c r="B301" s="2" t="s">
         <v>1629</v>
       </c>
-      <c r="C301" s="3" t="s">
+      <c r="C301" s="1" t="s">
         <v>1630</v>
       </c>
-      <c r="D301" s="3" t="s">
+      <c r="D301" s="1" t="s">
         <v>1631</v>
       </c>
       <c r="E301" s="2" t="s">
@@ -16463,7 +16456,7 @@
       <c r="I301" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J301" s="3"/>
+      <c r="J301" s="1"/>
       <c r="K301" s="2" t="s">
         <v>21</v>
       </c>
@@ -16475,10 +16468,10 @@
       <c r="B302" s="2" t="s">
         <v>1632</v>
       </c>
-      <c r="C302" s="3" t="s">
+      <c r="C302" s="1" t="s">
         <v>1633</v>
       </c>
-      <c r="D302" s="3" t="s">
+      <c r="D302" s="1" t="s">
         <v>1634</v>
       </c>
       <c r="E302" s="2" t="s">
@@ -16496,7 +16489,7 @@
       <c r="I302" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J302" s="3"/>
+      <c r="J302" s="1"/>
       <c r="K302" s="2" t="s">
         <v>21</v>
       </c>
@@ -16508,10 +16501,10 @@
       <c r="B303" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="C303" s="3" t="s">
+      <c r="C303" s="1" t="s">
         <v>1637</v>
       </c>
-      <c r="D303" s="3" t="s">
+      <c r="D303" s="1" t="s">
         <v>1638</v>
       </c>
       <c r="E303" s="2" t="s">
@@ -16529,7 +16522,7 @@
       <c r="I303" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J303" s="3"/>
+      <c r="J303" s="1"/>
       <c r="K303" s="2" t="s">
         <v>21</v>
       </c>
@@ -16541,10 +16534,10 @@
       <c r="B304" s="2" t="s">
         <v>1639</v>
       </c>
-      <c r="C304" s="3" t="s">
+      <c r="C304" s="1" t="s">
         <v>1640</v>
       </c>
-      <c r="D304" s="3" t="s">
+      <c r="D304" s="1" t="s">
         <v>1641</v>
       </c>
       <c r="E304" s="2" t="s">
@@ -16562,7 +16555,7 @@
       <c r="I304" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J304" s="3"/>
+      <c r="J304" s="1"/>
       <c r="K304" s="2" t="s">
         <v>21</v>
       </c>
